--- a/RBR_Excel.xlsx
+++ b/RBR_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdearagao\PycharmProjects\IB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F6711F-D3E8-48CD-88EE-C2CD06E87F5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C70FB8-9D85-4869-BD40-6DFC8C8EAD13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>open</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Delta</t>
+  </si>
+  <si>
+    <t>Rally2</t>
   </si>
 </sst>
 </file>
@@ -697,11 +700,11 @@
     <xf numFmtId="43" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="22" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1338,22 +1341,22 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="3"/>
+    <col min="1" max="1" width="7.53125" style="8" customWidth="1"/>
+    <col min="2" max="6" width="9.1328125" style="3"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="29" customWidth="1"/>
+    <col min="8" max="8" width="11" style="28" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1378,7 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1391,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
@@ -1415,36 +1418,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
-        <v>44274.354166666664</v>
+    <row r="2" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A2" s="29">
+        <v>0.35416666666666669</v>
       </c>
       <c r="B2" s="9">
-        <v>119.9</v>
+        <v>230.91499999999999</v>
       </c>
       <c r="C2" s="9">
-        <v>121.425</v>
+        <v>232.46</v>
       </c>
       <c r="D2" s="9">
-        <v>119.74</v>
+        <v>230.91499999999999</v>
       </c>
       <c r="E2" s="9">
-        <v>121.06</v>
+        <v>231.965</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
       </c>
       <c r="G2" s="7">
         <f>+(E2-B2)/B2</f>
-        <v>9.6747289407839582E-3</v>
-      </c>
-      <c r="H2" s="28">
+        <v>4.5471277309833118E-3</v>
+      </c>
+      <c r="H2" s="27">
         <f>+IFERROR(ABS(G2)/ABS(G1),0)</f>
         <v>0</v>
       </c>
       <c r="I2" s="7">
         <f>+(C2-B2)/B2</f>
-        <v>1.2718932443703014E-2</v>
+        <v>6.6907736613040121E-3</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
@@ -1454,11 +1457,11 @@
         <v>1</v>
       </c>
       <c r="L2" s="1">
-        <f>+IFERROR(IF(AND(OR(K1=1,M1=1),(ABS(G2)/ABS(G1))&lt;0.9,J3=1,G2&lt;0),1,0),0)</f>
+        <f t="shared" ref="L2:L65" si="0">+IFERROR(IF(AND(OR(K1=1,M1=1),(ABS(G2)/ABS(G1))&lt;0.9,G2&lt;0),1,0),0)</f>
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" ref="M2:M65" si="0">+IF(J2=1,1, 0)</f>
+        <f t="shared" ref="M2:M65" si="1">+IF(J2=1,1, 0)</f>
         <v>0</v>
       </c>
       <c r="N2" s="4">
@@ -1484,51 +1487,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>44274.357638888891</v>
+    <row r="3" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A3" s="29">
+        <v>0.3576388888888889</v>
       </c>
       <c r="B3" s="9">
-        <v>121.06</v>
+        <v>231.965</v>
       </c>
       <c r="C3" s="9">
-        <v>121.155</v>
+        <v>232.27</v>
       </c>
       <c r="D3" s="9">
-        <v>120.685</v>
+        <v>231.44499999999999</v>
       </c>
       <c r="E3" s="9">
-        <v>120.69499999999999</v>
+        <v>231.66499999999999</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G66" si="1">+(E3-B3)/B3</f>
-        <v>-3.0150338675037922E-3</v>
-      </c>
-      <c r="H3" s="28">
-        <f t="shared" ref="H3:H66" si="2">+IFERROR(ABS(G3)/ABS(G2),0)</f>
-        <v>0.31164013854629807</v>
+        <f t="shared" ref="G3:G66" si="2">+(E3-B3)/B3</f>
+        <v>-1.2932985579721568E-3</v>
+      </c>
+      <c r="H3" s="27">
+        <f t="shared" ref="H3:H66" si="3">+IFERROR(ABS(G3)/ABS(G2),0)</f>
+        <v>0.28442098715632125</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" ref="I3:I66" si="3">+(C3-B3)/B3</f>
-        <v>7.8473484222698546E-4</v>
+        <f t="shared" ref="I3:I66" si="4">+(C3-B3)/B3</f>
+        <v>1.314853533938339E-3</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J4" si="4">+IF(AND(C3&gt;C2,C3&gt;C1),1,0)</f>
+        <f t="shared" ref="J3:J4" si="5">+IF(AND(C3&gt;C2,C3&gt;C1),1,0)</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K66" si="5">+IF(G3&gt;0.0008,1, 0)</f>
+        <f t="shared" ref="K3:K66" si="6">+IF(G3&gt;0.0008,1, 0)</f>
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L66" si="6">+IFERROR(IF(AND(OR(K2=1,M2=1),(ABS(G3)/ABS(G2))&lt;0.9,J4=1,G3&lt;0),1,0),0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N3" s="1">
@@ -1540,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P34" si="9">+IFERROR(IF(AND(OR(K2=1),(ABS(G3)/ABS(G2))&lt;0.9,G3&lt;0),1,0),0)</f>
+        <f t="shared" ref="P3:P30" si="9">+IFERROR(IF(AND(OR(K2=1),(ABS(G3)/ABS(G2))&lt;0.9,G3&lt;0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="Q3">
@@ -1559,51 +1562,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
-        <v>44274.361111111109</v>
+    <row r="4" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A4" s="29">
+        <v>0.3611111111111111</v>
       </c>
       <c r="B4" s="9">
-        <v>120.69499999999999</v>
+        <v>231.66499999999999</v>
       </c>
       <c r="C4" s="9">
-        <v>120.705</v>
+        <v>231.7</v>
       </c>
       <c r="D4" s="9">
-        <v>119.995</v>
+        <v>230.715</v>
       </c>
       <c r="E4" s="9">
-        <v>120.36499999999999</v>
+        <v>230.89</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
       </c>
       <c r="G4" s="7">
+        <f t="shared" si="2"/>
+        <v>-3.3453478082576382E-3</v>
+      </c>
+      <c r="H4" s="27">
+        <f t="shared" si="3"/>
+        <v>2.5866786811415121</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="4"/>
+        <v>1.510802235987162E-4</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>-2.7341646298520927E-3</v>
-      </c>
-      <c r="H4" s="28">
-        <f t="shared" si="2"/>
-        <v>0.90684375367092085</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="3"/>
-        <v>8.2853473631924412E-5</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="1">
@@ -1635,51 +1638,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
-        <v>44274.364583333336</v>
+    <row r="5" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A5" s="29">
+        <v>0.36458333333333331</v>
       </c>
       <c r="B5" s="9">
-        <v>120.36499999999999</v>
+        <v>230.89</v>
       </c>
       <c r="C5" s="9">
-        <v>120.69499999999999</v>
+        <v>231.405</v>
       </c>
       <c r="D5" s="9">
-        <v>120.11499999999999</v>
+        <v>230.66</v>
       </c>
       <c r="E5" s="9">
-        <v>120.435</v>
+        <v>230.81</v>
       </c>
       <c r="F5" s="9">
         <v>3</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="1"/>
-        <v>5.8156440825827605E-4</v>
-      </c>
-      <c r="H5" s="28">
         <f t="shared" si="2"/>
-        <v>0.2127027765294939</v>
+        <v>-3.4648533933901029E-4</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="3"/>
+        <v>0.10357229179093061</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="3"/>
-        <v>2.7416607817887118E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.2304993719953867E-3</v>
       </c>
       <c r="J5" s="1">
         <f>+IF(AND(C5&gt;C4,C5&gt;C3),1,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="1">
@@ -1711,52 +1714,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>44274.368055555555</v>
+    <row r="6" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A6" s="29">
+        <v>0.36805555555555558</v>
       </c>
       <c r="B6" s="9">
-        <v>120.435</v>
+        <v>230.81</v>
       </c>
       <c r="C6" s="9">
-        <v>120.985</v>
+        <v>231.35499999999999</v>
       </c>
       <c r="D6" s="9">
-        <v>120.285</v>
+        <v>230.54</v>
       </c>
       <c r="E6" s="9">
-        <v>120.825</v>
+        <v>231.13499999999999</v>
       </c>
       <c r="F6" s="9">
         <v>4</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>3.2382613027774365E-3</v>
-      </c>
-      <c r="H6" s="28">
         <f t="shared" si="2"/>
-        <v>5.5681903101252139</v>
+        <v>1.4080845717256126E-3</v>
+      </c>
+      <c r="H6" s="27">
+        <f t="shared" si="3"/>
+        <v>4.0639080845723923</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="3"/>
-        <v>4.5667787603271238E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.3612495125860558E-3</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ref="J6:J69" si="14">+IF(AND(C6&gt;C5,C6&gt;C4),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="7"/>
@@ -1772,7 +1775,7 @@
       </c>
       <c r="Q6">
         <f>+IF(AND(K6=1,G5&gt;0),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f>+IF(AND(Q6=1,K6=1,G4&gt;0),1,0)</f>
@@ -1784,55 +1787,55 @@
       </c>
       <c r="T6">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>44274.371527777781</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A7" s="29">
+        <v>0.37152777777777773</v>
       </c>
       <c r="B7" s="9">
-        <v>120.825</v>
+        <v>231.13499999999999</v>
       </c>
       <c r="C7" s="9">
-        <v>120.97499999999999</v>
+        <v>231.44499999999999</v>
       </c>
       <c r="D7" s="9">
-        <v>120.55500000000001</v>
+        <v>230.54</v>
       </c>
       <c r="E7" s="9">
-        <v>120.685</v>
+        <v>230.65</v>
       </c>
       <c r="F7" s="9">
         <v>5</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.1587006000413869E-3</v>
-      </c>
-      <c r="H7" s="28">
         <f t="shared" si="2"/>
-        <v>0.35781565837431856</v>
+        <v>-2.0983407965041436E-3</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" si="3"/>
+        <v>1.4902093515111949</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="3"/>
-        <v>1.2414649286156959E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.3412075194150703E-3</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="7"/>
@@ -1844,7 +1847,7 @@
       </c>
       <c r="P7" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f t="shared" ref="Q7:Q70" si="15">+IF(AND(K7=1,G6&gt;0),1,0)</f>
@@ -1863,51 +1866,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
-        <v>44274.375</v>
+    <row r="8" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A8" s="29">
+        <v>0.375</v>
       </c>
       <c r="B8" s="9">
-        <v>120.685</v>
+        <v>230.65</v>
       </c>
       <c r="C8" s="9">
-        <v>120.685</v>
+        <v>230.655</v>
       </c>
       <c r="D8" s="9">
-        <v>119.995</v>
+        <v>229.565</v>
       </c>
       <c r="E8" s="9">
-        <v>120.045</v>
+        <v>229.58500000000001</v>
       </c>
       <c r="F8" s="9">
         <v>6</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="1"/>
-        <v>-5.3030616895223147E-3</v>
-      </c>
-      <c r="H8" s="28">
         <f t="shared" si="2"/>
-        <v>4.5767316331180785</v>
+        <v>-4.6173856492521034E-3</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="3"/>
+        <v>2.2004936743091079</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.1677866897877531E-5</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
@@ -1939,51 +1942,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
-        <v>44274.378472222219</v>
+    <row r="9" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A9" s="29">
+        <v>0.37847222222222227</v>
       </c>
       <c r="B9" s="9">
-        <v>120.045</v>
+        <v>229.58500000000001</v>
       </c>
       <c r="C9" s="9">
-        <v>120.105</v>
+        <v>229.87</v>
       </c>
       <c r="D9" s="9">
-        <v>119.675</v>
+        <v>229.345</v>
       </c>
       <c r="E9" s="9">
-        <v>119.905</v>
+        <v>229.61500000000001</v>
       </c>
       <c r="F9" s="9">
         <v>7</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.1662293306676709E-3</v>
-      </c>
-      <c r="H9" s="28">
         <f t="shared" si="2"/>
-        <v>0.21991622933066834</v>
+        <v>1.3067055774550226E-4</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="3"/>
+        <v>2.8299684642253672E-2</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="3"/>
-        <v>4.9981257028616159E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.2413702985822096E-3</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="1">
@@ -2015,51 +2018,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
-        <v>44274.381944444445</v>
+    <row r="10" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A10" s="29">
+        <v>0.38194444444444442</v>
       </c>
       <c r="B10" s="9">
-        <v>119.905</v>
+        <v>229.61500000000001</v>
       </c>
       <c r="C10" s="9">
-        <v>120.215</v>
+        <v>229.88499999999999</v>
       </c>
       <c r="D10" s="9">
-        <v>119.795</v>
+        <v>229.35499999999999</v>
       </c>
       <c r="E10" s="9">
-        <v>120.185</v>
+        <v>229.82499999999999</v>
       </c>
       <c r="F10" s="9">
         <v>8</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>2.3351820190984623E-3</v>
-      </c>
-      <c r="H10" s="28">
         <f t="shared" si="2"/>
-        <v>2.0023351820190984</v>
+        <v>9.1457439627193142E-4</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="3"/>
+        <v>6.9990854256027806</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="3"/>
-        <v>2.5853800925733062E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.1758813666353756E-3</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="1">
@@ -2068,7 +2071,7 @@
       </c>
       <c r="O10">
         <f t="shared" ref="O10:O73" si="18">+IF(OR(N11=1,N12=1,N10=1),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="9"/>
@@ -2076,7 +2079,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" si="16"/>
@@ -2088,54 +2091,54 @@
       </c>
       <c r="T10">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
-        <v>44274.385416666664</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A11" s="29">
+        <v>0.38541666666666669</v>
       </c>
       <c r="B11" s="9">
-        <v>120.185</v>
+        <v>229.82499999999999</v>
       </c>
       <c r="C11" s="9">
-        <v>120.245</v>
+        <v>229.89</v>
       </c>
       <c r="D11" s="9">
-        <v>119.97499999999999</v>
+        <v>229.58</v>
       </c>
       <c r="E11" s="9">
-        <v>120.145</v>
+        <v>229.88</v>
       </c>
       <c r="F11" s="9">
         <v>9</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>-3.3282023547036863E-4</v>
-      </c>
-      <c r="H11" s="28">
         <f t="shared" si="2"/>
-        <v>0.14252432262169426</v>
+        <v>2.3931252039598313E-4</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="3"/>
+        <v>0.26166544938442393</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="3"/>
-        <v>4.9923035320549385E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.8282388774066237E-4</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N11" s="1">
@@ -2144,11 +2147,11 @@
       </c>
       <c r="O11">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <f t="shared" si="15"/>
@@ -2167,60 +2170,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
-        <v>44274.388888888891</v>
+    <row r="12" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A12" s="29">
+        <v>0.3888888888888889</v>
       </c>
       <c r="B12" s="9">
-        <v>120.145</v>
+        <v>229.88</v>
       </c>
       <c r="C12" s="9">
-        <v>120.44499999999999</v>
+        <v>230.435</v>
       </c>
       <c r="D12" s="9">
-        <v>120.065</v>
+        <v>229.815</v>
       </c>
       <c r="E12" s="9">
-        <v>120.235</v>
+        <v>230.31</v>
       </c>
       <c r="F12" s="9">
         <v>10</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>7.4909484373052073E-4</v>
-      </c>
-      <c r="H12" s="28">
         <f t="shared" si="2"/>
-        <v>2.2507490948434641</v>
+        <v>1.8705411519053716E-3</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="3"/>
+        <v>7.816311277029067</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="3"/>
-        <v>2.4969828124349509E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.4143031146685525E-3</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="9"/>
@@ -2228,67 +2231,67 @@
       </c>
       <c r="Q12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
-        <v>44274.392361111109</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A13" s="29">
+        <v>0.3923611111111111</v>
       </c>
       <c r="B13" s="9">
-        <v>120.235</v>
+        <v>230.31</v>
       </c>
       <c r="C13" s="9">
-        <v>120.355</v>
+        <v>230.74</v>
       </c>
       <c r="D13" s="9">
-        <v>120.08499999999999</v>
+        <v>230.29</v>
       </c>
       <c r="E13" s="9">
-        <v>120.11499999999999</v>
+        <v>230.565</v>
       </c>
       <c r="F13" s="9">
         <v>11</v>
       </c>
-      <c r="G13" s="26">
-        <f t="shared" si="1"/>
-        <v>-9.9804549424048353E-4</v>
-      </c>
-      <c r="H13" s="28">
+      <c r="G13" s="25">
         <f t="shared" si="2"/>
-        <v>1.3323352878390928</v>
+        <v>1.1072033346359058E-3</v>
+      </c>
+      <c r="H13" s="27">
+        <f t="shared" si="3"/>
+        <v>0.59191605247929757</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="3"/>
-        <v>9.9804549424048353E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.8670487603664923E-3</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="17"/>
@@ -2304,67 +2307,67 @@
       </c>
       <c r="Q13">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
-        <v>44274.395833333336</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A14" s="29">
+        <v>0.39583333333333331</v>
       </c>
       <c r="B14" s="9">
-        <v>120.11499999999999</v>
+        <v>230.565</v>
       </c>
       <c r="C14" s="9">
-        <v>120.155</v>
+        <v>230.965</v>
       </c>
       <c r="D14" s="9">
-        <v>119.845</v>
+        <v>230.16499999999999</v>
       </c>
       <c r="E14" s="9">
-        <v>119.875</v>
+        <v>230.26</v>
       </c>
       <c r="F14" s="9">
         <v>12</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.9980851683802595E-3</v>
-      </c>
-      <c r="H14" s="28">
         <f t="shared" si="2"/>
-        <v>2.0019980851682617</v>
+        <v>-1.3228373777460015E-3</v>
+      </c>
+      <c r="H14" s="27">
+        <f t="shared" si="3"/>
+        <v>1.1947555939948511</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="3"/>
-        <v>3.3301419473010245E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.7348686921258895E-3</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="17"/>
@@ -2395,51 +2398,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
-        <v>44274.399305555555</v>
+    <row r="15" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A15" s="29">
+        <v>0.39930555555555558</v>
       </c>
       <c r="B15" s="9">
-        <v>119.875</v>
+        <v>230.26</v>
       </c>
       <c r="C15" s="9">
-        <v>120.63500000000001</v>
+        <v>231.59</v>
       </c>
       <c r="D15" s="9">
-        <v>119.855</v>
+        <v>230.245</v>
       </c>
       <c r="E15" s="9">
-        <v>120.625</v>
+        <v>231.45</v>
       </c>
       <c r="F15" s="9">
         <v>13</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="1"/>
-        <v>6.2565172054223151E-3</v>
-      </c>
-      <c r="H15" s="28">
         <f t="shared" si="2"/>
-        <v>3.1312565172054891</v>
+        <v>5.1680708764005809E-3</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" si="3"/>
+        <v>3.906807415138601</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="3"/>
-        <v>6.3399374348279882E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.7760792148007145E-3</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N15" s="1">
@@ -2471,51 +2474,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
-        <v>44274.402777777781</v>
+    <row r="16" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A16" s="29">
+        <v>0.40277777777777773</v>
       </c>
       <c r="B16" s="9">
-        <v>120.625</v>
+        <v>231.45</v>
       </c>
       <c r="C16" s="9">
-        <v>120.63500000000001</v>
+        <v>231.57</v>
       </c>
       <c r="D16" s="9">
-        <v>120.465</v>
+        <v>231.095</v>
       </c>
       <c r="E16" s="9">
-        <v>120.535</v>
+        <v>231.17500000000001</v>
       </c>
       <c r="F16" s="9">
         <v>14</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="1"/>
-        <v>-7.4611398963733396E-4</v>
-      </c>
-      <c r="H16" s="28">
         <f t="shared" si="2"/>
-        <v>0.11925388601036721</v>
+        <v>-1.1881615899761386E-3</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="3"/>
+        <v>0.2299042753847951</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="3"/>
-        <v>8.2901554404187487E-5</v>
+        <f t="shared" si="4"/>
+        <v>5.1847051198965026E-4</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="1">
@@ -2547,51 +2550,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
-        <v>44274.40625</v>
+    <row r="17" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A17" s="29">
+        <v>0.40625</v>
       </c>
       <c r="B17" s="9">
-        <v>120.535</v>
+        <v>231.17500000000001</v>
       </c>
       <c r="C17" s="9">
-        <v>120.575</v>
+        <v>231.245</v>
       </c>
       <c r="D17" s="9">
-        <v>120.395</v>
+        <v>230.76</v>
       </c>
       <c r="E17" s="9">
-        <v>120.41500000000001</v>
+        <v>230.78</v>
       </c>
       <c r="F17" s="9">
         <v>15</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>-9.955614551789135E-4</v>
-      </c>
-      <c r="H17" s="28">
         <f t="shared" si="2"/>
-        <v>1.3343288947883543</v>
+        <v>-1.7086622688439936E-3</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" si="3"/>
+        <v>1.4380722986326364</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="3"/>
-        <v>3.3185381839304979E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.0280090840269566E-4</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="1">
@@ -2623,52 +2626,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
-        <v>44274.409722222219</v>
+    <row r="18" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A18" s="29">
+        <v>0.40972222222222227</v>
       </c>
       <c r="B18" s="9">
-        <v>120.41500000000001</v>
+        <v>230.78</v>
       </c>
       <c r="C18" s="9">
-        <v>120.72499999999999</v>
+        <v>231.33</v>
       </c>
       <c r="D18" s="9">
-        <v>120.295</v>
+        <v>230.655</v>
       </c>
       <c r="E18" s="9">
-        <v>120.485</v>
+        <v>231.1</v>
       </c>
       <c r="F18" s="9">
         <v>16</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>5.8132292488471678E-4</v>
-      </c>
-      <c r="H18" s="28">
         <f t="shared" si="2"/>
-        <v>0.58391465625820815</v>
+        <v>1.3866019585752369E-3</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="3"/>
+        <v>0.8115131842370179</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="3"/>
-        <v>2.5744300959181835E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.3832221163012884E-3</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="17"/>
@@ -2699,51 +2702,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
-        <v>44274.413194444445</v>
+    <row r="19" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A19" s="29">
+        <v>0.41319444444444442</v>
       </c>
       <c r="B19" s="9">
-        <v>120.485</v>
+        <v>231.1</v>
       </c>
       <c r="C19" s="9">
-        <v>120.52500000000001</v>
+        <v>231.18</v>
       </c>
       <c r="D19" s="9">
-        <v>120.33499999999999</v>
+        <v>230.785</v>
       </c>
       <c r="E19" s="9">
-        <v>120.505</v>
+        <v>231.155</v>
       </c>
       <c r="F19" s="9">
         <v>17</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="1"/>
-        <v>1.6599576710790573E-4</v>
-      </c>
-      <c r="H19" s="28">
         <f t="shared" si="2"/>
-        <v>0.28554828994714887</v>
+        <v>2.379922111640278E-4</v>
+      </c>
+      <c r="H19" s="27">
+        <f t="shared" si="3"/>
+        <v>0.17163700778886096</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="3"/>
-        <v>3.3199153421592937E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.4617048896586977E-4</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="1">
@@ -2775,52 +2778,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
-        <v>44274.416666666664</v>
+    <row r="20" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A20" s="29">
+        <v>0.41666666666666669</v>
       </c>
       <c r="B20" s="9">
-        <v>120.505</v>
+        <v>231.155</v>
       </c>
       <c r="C20" s="9">
-        <v>120.55500000000001</v>
+        <v>231.53</v>
       </c>
       <c r="D20" s="9">
-        <v>120.355</v>
+        <v>231.02500000000001</v>
       </c>
       <c r="E20" s="9">
-        <v>120.435</v>
+        <v>231.34</v>
       </c>
       <c r="F20" s="9">
         <v>18</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="1"/>
-        <v>-5.8088875980244123E-4</v>
-      </c>
-      <c r="H20" s="28">
         <f t="shared" si="2"/>
-        <v>3.4994191112405524</v>
+        <v>8.0032878371656365E-4</v>
+      </c>
+      <c r="H20" s="27">
+        <f t="shared" si="3"/>
+        <v>3.362836034852271</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="3"/>
-        <v>4.1492054271616421E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.6222880751011225E-3</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="17"/>
@@ -2836,11 +2839,11 @@
       </c>
       <c r="Q20">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <f t="shared" si="13"/>
@@ -2848,54 +2851,54 @@
       </c>
       <c r="T20">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
-        <v>44274.420138888891</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A21" s="29">
+        <v>0.4201388888888889</v>
       </c>
       <c r="B21" s="9">
-        <v>120.435</v>
+        <v>231.34</v>
       </c>
       <c r="C21" s="9">
-        <v>120.495</v>
+        <v>231.35</v>
       </c>
       <c r="D21" s="9">
-        <v>120.16500000000001</v>
+        <v>230.93</v>
       </c>
       <c r="E21" s="9">
-        <v>120.215</v>
+        <v>231.125</v>
       </c>
       <c r="F21" s="9">
         <v>19</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.8267115041308494E-3</v>
-      </c>
-      <c r="H21" s="28">
         <f t="shared" si="2"/>
-        <v>3.1446838543615638</v>
+        <v>-9.2936802973979165E-4</v>
+      </c>
+      <c r="H21" s="27">
+        <f t="shared" si="3"/>
+        <v>1.1612327941324265</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="3"/>
-        <v>4.9819404658116219E-4</v>
+        <f t="shared" si="4"/>
+        <v>4.3226419987857286E-5</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="1">
@@ -2927,51 +2930,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
-        <v>44274.423611111109</v>
+    <row r="22" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A22" s="29">
+        <v>0.4236111111111111</v>
       </c>
       <c r="B22" s="9">
-        <v>120.215</v>
+        <v>231.125</v>
       </c>
       <c r="C22" s="9">
-        <v>120.36499999999999</v>
+        <v>231.495</v>
       </c>
       <c r="D22" s="9">
-        <v>120.155</v>
+        <v>231.005</v>
       </c>
       <c r="E22" s="9">
-        <v>120.205</v>
+        <v>231.1</v>
       </c>
       <c r="F22" s="9">
         <v>20</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="1"/>
-        <v>-8.3184294805183339E-5</v>
-      </c>
-      <c r="H22" s="28">
         <f t="shared" si="2"/>
-        <v>4.5537729749374124E-2</v>
+        <v>-1.0816657652787749E-4</v>
+      </c>
+      <c r="H22" s="27">
+        <f t="shared" si="3"/>
+        <v>0.11638723634399434</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="3"/>
-        <v>1.2477644220770408E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.6008653326122426E-3</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="1">
@@ -3003,51 +3006,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
-        <v>44274.427083333336</v>
+    <row r="23" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A23" s="29">
+        <v>0.42708333333333331</v>
       </c>
       <c r="B23" s="9">
-        <v>120.205</v>
+        <v>231.1</v>
       </c>
       <c r="C23" s="9">
-        <v>120.405</v>
+        <v>231.38499999999999</v>
       </c>
       <c r="D23" s="9">
-        <v>120.105</v>
+        <v>230.95500000000001</v>
       </c>
       <c r="E23" s="9">
-        <v>120.155</v>
+        <v>231.01</v>
       </c>
       <c r="F23" s="9">
         <v>21</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="1"/>
-        <v>-4.1595607503845227E-4</v>
-      </c>
-      <c r="H23" s="28">
         <f t="shared" si="2"/>
-        <v>5.0004159560721959</v>
+        <v>-3.8944180008655736E-4</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" si="3"/>
+        <v>3.600389441799404</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="3"/>
-        <v>1.6638243001539275E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.2332323669407036E-3</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="1">
@@ -3079,52 +3082,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
-        <v>44274.430555555555</v>
+    <row r="24" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A24" s="29">
+        <v>0.43055555555555558</v>
       </c>
       <c r="B24" s="9">
-        <v>120.155</v>
+        <v>231.01</v>
       </c>
       <c r="C24" s="9">
-        <v>120.44499999999999</v>
+        <v>231.255</v>
       </c>
       <c r="D24" s="9">
-        <v>120.02500000000001</v>
+        <v>230.61</v>
       </c>
       <c r="E24" s="9">
-        <v>120.05500000000001</v>
+        <v>230.64</v>
       </c>
       <c r="F24" s="9">
         <v>22</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="1"/>
-        <v>-8.3225833298651174E-4</v>
-      </c>
-      <c r="H24" s="28">
         <f t="shared" si="2"/>
-        <v>2.0008322583329865</v>
+        <v>-1.6016622657028031E-3</v>
+      </c>
+      <c r="H24" s="27">
+        <f t="shared" si="3"/>
+        <v>4.1127127733767086</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="3"/>
-        <v>2.4135491656609551E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.0605601489113222E-3</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="17"/>
@@ -3155,51 +3158,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
-        <v>44274.434027777781</v>
+    <row r="25" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A25" s="29">
+        <v>0.43402777777777773</v>
       </c>
       <c r="B25" s="9">
-        <v>120.05500000000001</v>
+        <v>230.64</v>
       </c>
       <c r="C25" s="9">
-        <v>120.05500000000001</v>
+        <v>230.74</v>
       </c>
       <c r="D25" s="9">
-        <v>119.86499999999999</v>
+        <v>230.16</v>
       </c>
       <c r="E25" s="9">
-        <v>120.015</v>
+        <v>230.72499999999999</v>
       </c>
       <c r="F25" s="9">
         <v>23</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="1"/>
-        <v>-3.331806255466765E-4</v>
-      </c>
-      <c r="H25" s="28">
         <f t="shared" si="2"/>
-        <v>0.40033318062563189</v>
+        <v>3.6853971557408933E-4</v>
+      </c>
+      <c r="H25" s="27">
+        <f t="shared" si="3"/>
+        <v>0.23009826944532252</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4.3357613596957487E-4</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="1">
@@ -3231,51 +3234,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="25">
-        <v>44274.4375</v>
+    <row r="26" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A26" s="29">
+        <v>0.4375</v>
       </c>
       <c r="B26" s="9">
-        <v>120.015</v>
+        <v>230.72499999999999</v>
       </c>
       <c r="C26" s="9">
-        <v>120.105</v>
+        <v>230.95500000000001</v>
       </c>
       <c r="D26" s="9">
-        <v>119.935</v>
+        <v>230.56</v>
       </c>
       <c r="E26" s="9">
-        <v>120.015</v>
+        <v>230.82</v>
       </c>
       <c r="F26" s="9">
         <v>24</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.117455845703711E-4</v>
+      </c>
+      <c r="H26" s="27">
+        <f t="shared" si="3"/>
+        <v>1.1172353132388411</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="3"/>
-        <v>7.4990626171731378E-4</v>
+        <f t="shared" si="4"/>
+        <v>9.9685773106519978E-4</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
@@ -3307,51 +3310,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
-        <v>44274.440972222219</v>
+    <row r="27" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A27" s="29">
+        <v>0.44097222222222227</v>
       </c>
       <c r="B27" s="9">
-        <v>120.015</v>
+        <v>230.82</v>
       </c>
       <c r="C27" s="9">
-        <v>120.22499999999999</v>
+        <v>231.43</v>
       </c>
       <c r="D27" s="9">
-        <v>119.985</v>
+        <v>230.81</v>
       </c>
       <c r="E27" s="9">
-        <v>120.19499999999999</v>
+        <v>231.22499999999999</v>
       </c>
       <c r="F27" s="9">
         <v>25</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="1"/>
-        <v>1.4998125234345092E-3</v>
-      </c>
-      <c r="H27" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.7546139849233219E-3</v>
+      </c>
+      <c r="H27" s="27">
+        <f t="shared" si="3"/>
+        <v>4.2614032807519813</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="3"/>
-        <v>1.7497812773402802E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.6427519279092525E-3</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N27" s="1">
@@ -3368,11 +3371,11 @@
       </c>
       <c r="Q27">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <f t="shared" si="13"/>
@@ -3380,55 +3383,55 @@
       </c>
       <c r="T27">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
-        <v>44274.444444444445</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A28" s="29">
+        <v>0.44444444444444442</v>
       </c>
       <c r="B28" s="9">
-        <v>120.19499999999999</v>
+        <v>231.22499999999999</v>
       </c>
       <c r="C28" s="9">
-        <v>120.33499999999999</v>
+        <v>231.42</v>
       </c>
       <c r="D28" s="9">
-        <v>120.145</v>
+        <v>231.14</v>
       </c>
       <c r="E28" s="9">
-        <v>120.325</v>
+        <v>231.37</v>
       </c>
       <c r="F28" s="9">
         <v>26</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="1"/>
-        <v>1.081575772702772E-3</v>
-      </c>
-      <c r="H28" s="28">
         <f t="shared" si="2"/>
-        <v>0.72114064644960274</v>
+        <v>6.2709482106178065E-4</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" si="3"/>
+        <v>0.35739759653698716</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="3"/>
-        <v>1.1647739090644418E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.4333441453127123E-4</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="17"/>
@@ -3444,7 +3447,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <f t="shared" si="16"/>
@@ -3456,54 +3459,54 @@
       </c>
       <c r="T28">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
-        <v>44274.447916666664</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A29" s="29">
+        <v>0.44791666666666669</v>
       </c>
       <c r="B29" s="9">
-        <v>120.325</v>
+        <v>231.37</v>
       </c>
       <c r="C29" s="9">
-        <v>120.44499999999999</v>
+        <v>231.52500000000001</v>
       </c>
       <c r="D29" s="9">
-        <v>120.22499999999999</v>
+        <v>231.23</v>
       </c>
       <c r="E29" s="9">
-        <v>120.36499999999999</v>
+        <v>231.345</v>
       </c>
       <c r="F29" s="9">
         <v>27</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="1"/>
-        <v>3.3243299397458582E-4</v>
-      </c>
-      <c r="H29" s="28">
         <f t="shared" si="2"/>
-        <v>0.30735987469824899</v>
+        <v>-1.0805203786145864E-4</v>
+      </c>
+      <c r="H29" s="27">
+        <f t="shared" si="3"/>
+        <v>0.17230574106561386</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="3"/>
-        <v>9.9729898192387552E-4</v>
+        <f t="shared" si="4"/>
+        <v>6.6992263474089612E-4</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N29" s="1">
@@ -3535,51 +3538,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
-        <v>44274.451388888891</v>
+    <row r="30" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A30" s="29">
+        <v>0.4513888888888889</v>
       </c>
       <c r="B30" s="9">
-        <v>120.36499999999999</v>
+        <v>231.345</v>
       </c>
       <c r="C30" s="9">
-        <v>120.595</v>
+        <v>231.55500000000001</v>
       </c>
       <c r="D30" s="9">
-        <v>120.215</v>
+        <v>231.01499999999999</v>
       </c>
       <c r="E30" s="9">
-        <v>120.575</v>
+        <v>231.51</v>
       </c>
       <c r="F30" s="9">
         <v>28</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="1"/>
-        <v>1.74469322477471E-3</v>
-      </c>
-      <c r="H30" s="28">
         <f t="shared" si="2"/>
-        <v>5.2482553067764695</v>
+        <v>7.1322051481550086E-4</v>
+      </c>
+      <c r="H30" s="27">
+        <f t="shared" si="3"/>
+        <v>6.6007132205129961</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="3"/>
-        <v>1.9108544842770239E-3</v>
+        <f t="shared" si="4"/>
+        <v>9.0773520067435193E-4</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N30" s="1">
@@ -3588,7 +3591,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="9"/>
@@ -3596,66 +3599,66 @@
       </c>
       <c r="Q30">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
-        <v>44274.454861111109</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A31" s="29">
+        <v>0.4548611111111111</v>
       </c>
       <c r="B31" s="9">
-        <v>120.575</v>
+        <v>231.51</v>
       </c>
       <c r="C31" s="9">
-        <v>120.61499999999999</v>
+        <v>231.58500000000001</v>
       </c>
       <c r="D31" s="9">
-        <v>120.455</v>
+        <v>231.38</v>
       </c>
       <c r="E31" s="9">
-        <v>120.465</v>
+        <v>231.42</v>
       </c>
       <c r="F31" s="9">
         <v>29</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="1"/>
-        <v>-9.1229525191788871E-4</v>
-      </c>
-      <c r="H31" s="28">
         <f t="shared" si="2"/>
-        <v>0.52289722855758336</v>
+        <v>-3.8875210574058753E-4</v>
+      </c>
+      <c r="H31" s="27">
+        <f t="shared" si="3"/>
+        <v>0.54506579334885186</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="3"/>
-        <v>3.3174372797007708E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.2396008811721766E-4</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N31" s="1">
@@ -3664,11 +3667,11 @@
       </c>
       <c r="O31">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
         <f>+IFERROR(IF(AND(OR(K30=1),(ABS(G31)/ABS(G30))&lt;0.9,G31&lt;0),1,0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <f t="shared" si="15"/>
@@ -3687,60 +3690,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
-        <v>44274.458333333336</v>
+    <row r="32" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A32" s="29">
+        <v>0.45833333333333331</v>
       </c>
       <c r="B32" s="9">
-        <v>120.465</v>
+        <v>231.42</v>
       </c>
       <c r="C32" s="9">
-        <v>120.685</v>
+        <v>231.79499999999999</v>
       </c>
       <c r="D32" s="9">
-        <v>120.465</v>
+        <v>231.42</v>
       </c>
       <c r="E32" s="9">
-        <v>120.625</v>
+        <v>231.58</v>
       </c>
       <c r="F32" s="9">
         <v>30</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="1"/>
-        <v>1.3281866102187075E-3</v>
-      </c>
-      <c r="H32" s="28">
         <f t="shared" si="2"/>
-        <v>1.4558736411556499</v>
+        <v>6.9138363149263255E-4</v>
+      </c>
+      <c r="H32" s="27">
+        <f t="shared" si="3"/>
+        <v>1.778469161409481</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8262565890507522E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.6204303863106041E-3</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" ref="P32:P79" si="19">+IFERROR(IF(AND(OR(K31=1),(ABS(G32)/ABS(G31))&lt;0.9,G32&lt;0),1,0),0)</f>
@@ -3763,52 +3766,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
-        <v>44274.461805555555</v>
+    <row r="33" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A33" s="29">
+        <v>0.46180555555555558</v>
       </c>
       <c r="B33" s="9">
-        <v>120.625</v>
+        <v>231.58</v>
       </c>
       <c r="C33" s="9">
-        <v>120.705</v>
+        <v>231.7</v>
       </c>
       <c r="D33" s="9">
-        <v>120.545</v>
+        <v>231.41499999999999</v>
       </c>
       <c r="E33" s="9">
-        <v>120.605</v>
+        <v>231.66499999999999</v>
       </c>
       <c r="F33" s="9">
         <v>31</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.6580310880825717E-4</v>
-      </c>
-      <c r="H33" s="28">
         <f t="shared" si="2"/>
-        <v>0.12483419689116954</v>
+        <v>3.6704378616451993E-4</v>
+      </c>
+      <c r="H33" s="27">
+        <f t="shared" si="3"/>
+        <v>0.53088295621362447</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="3"/>
-        <v>6.6321243523314644E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.1817946282052042E-4</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="17"/>
@@ -3820,7 +3823,7 @@
       </c>
       <c r="P33" s="1">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <f t="shared" si="15"/>
@@ -3839,35 +3842,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
-        <v>44274.465277777781</v>
+    <row r="34" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A34" s="29">
+        <v>0.46527777777777773</v>
       </c>
       <c r="B34" s="9">
-        <v>120.605</v>
+        <v>231.66499999999999</v>
       </c>
       <c r="C34" s="9">
-        <v>120.605</v>
+        <v>231.66499999999999</v>
       </c>
       <c r="D34" s="9">
-        <v>120.405</v>
+        <v>231.34</v>
       </c>
       <c r="E34" s="9">
-        <v>120.485</v>
+        <v>231.45500000000001</v>
       </c>
       <c r="F34" s="9">
         <v>32</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="1"/>
-        <v>-9.9498362422788885E-4</v>
-      </c>
-      <c r="H34" s="28">
         <f t="shared" si="2"/>
-        <v>6.000994983625648</v>
+        <v>-9.0648134159229731E-4</v>
+      </c>
+      <c r="H34" s="27">
+        <f t="shared" si="3"/>
+        <v>2.4696817539528797</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J34" s="1">
@@ -3875,15 +3878,15 @@
         <v>0</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N34" s="1">
@@ -3915,51 +3918,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
-        <v>44274.46875</v>
+    <row r="35" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A35" s="29">
+        <v>0.46875</v>
       </c>
       <c r="B35" s="9">
-        <v>120.485</v>
+        <v>231.45500000000001</v>
       </c>
       <c r="C35" s="9">
-        <v>120.685</v>
+        <v>231.58500000000001</v>
       </c>
       <c r="D35" s="9">
-        <v>120.44499999999999</v>
+        <v>231.32</v>
       </c>
       <c r="E35" s="9">
-        <v>120.625</v>
+        <v>231.5</v>
       </c>
       <c r="F35" s="9">
         <v>33</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="1"/>
-        <v>1.161970369755576E-3</v>
-      </c>
-      <c r="H35" s="28">
         <f t="shared" si="2"/>
-        <v>1.1678286370363828</v>
+        <v>1.9442224190441984E-4</v>
+      </c>
+      <c r="H35" s="27">
+        <f t="shared" si="3"/>
+        <v>0.21448013652758002</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="3"/>
-        <v>1.6599576710794111E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.6166425439068259E-4</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N35" s="1">
@@ -3991,52 +3994,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="25">
-        <v>44274.472222222219</v>
+    <row r="36" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A36" s="29">
+        <v>0.47222222222222227</v>
       </c>
       <c r="B36" s="9">
-        <v>120.625</v>
+        <v>231.5</v>
       </c>
       <c r="C36" s="9">
-        <v>120.845</v>
+        <v>231.5</v>
       </c>
       <c r="D36" s="9">
-        <v>120.575</v>
+        <v>231.16499999999999</v>
       </c>
       <c r="E36" s="9">
-        <v>120.77500000000001</v>
+        <v>231.23</v>
       </c>
       <c r="F36" s="9">
         <v>34</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="1"/>
-        <v>1.2435233160622233E-3</v>
-      </c>
-      <c r="H36" s="28">
         <f t="shared" si="2"/>
-        <v>1.0701850481125454</v>
+        <v>-1.166306695464407E-3</v>
+      </c>
+      <c r="H36" s="27">
+        <f t="shared" si="3"/>
+        <v>5.9988336933064295</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8238341968911823E-3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="17"/>
@@ -4052,7 +4055,7 @@
       </c>
       <c r="Q36">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <f t="shared" si="16"/>
@@ -4064,54 +4067,54 @@
       </c>
       <c r="T36">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
-        <v>44274.475694444445</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A37" s="29">
+        <v>0.47569444444444442</v>
       </c>
       <c r="B37" s="9">
-        <v>120.77500000000001</v>
+        <v>231.23</v>
       </c>
       <c r="C37" s="9">
-        <v>120.80500000000001</v>
+        <v>231.35499999999999</v>
       </c>
       <c r="D37" s="9">
-        <v>120.44499999999999</v>
+        <v>231.13499999999999</v>
       </c>
       <c r="E37" s="9">
-        <v>120.55500000000001</v>
+        <v>231.33</v>
       </c>
       <c r="F37" s="9">
         <v>35</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.821569033326424E-3</v>
-      </c>
-      <c r="H37" s="28">
         <f t="shared" si="2"/>
-        <v>1.464845097633277</v>
+        <v>4.3246983522909113E-4</v>
+      </c>
+      <c r="H37" s="27">
+        <f t="shared" si="3"/>
+        <v>0.37080284020566967</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="3"/>
-        <v>2.483957772717958E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.4058729403624103E-4</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N37" s="1">
@@ -4143,52 +4146,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
-        <v>44274.479166666664</v>
+    <row r="38" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A38" s="29">
+        <v>0.47916666666666669</v>
       </c>
       <c r="B38" s="9">
-        <v>120.55500000000001</v>
+        <v>231.33</v>
       </c>
       <c r="C38" s="9">
-        <v>120.80500000000001</v>
+        <v>231.64500000000001</v>
       </c>
       <c r="D38" s="9">
-        <v>120.535</v>
+        <v>231.315</v>
       </c>
       <c r="E38" s="9">
-        <v>120.785</v>
+        <v>231.54499999999999</v>
       </c>
       <c r="F38" s="9">
         <v>36</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="1"/>
-        <v>1.9078428932851376E-3</v>
-      </c>
-      <c r="H38" s="28">
         <f t="shared" si="2"/>
-        <v>1.0473623883477896</v>
+        <v>9.2940820472906666E-4</v>
+      </c>
+      <c r="H38" s="27">
+        <f t="shared" si="3"/>
+        <v>2.1490705917945321</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="3"/>
-        <v>2.0737422753100243E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.3616910906497112E-3</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="17"/>
@@ -4196,7 +4199,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="19"/>
@@ -4204,7 +4207,7 @@
       </c>
       <c r="Q38">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <f t="shared" si="16"/>
@@ -4216,55 +4219,55 @@
       </c>
       <c r="T38">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
-        <v>44274.482638888891</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A39" s="29">
+        <v>0.4826388888888889</v>
       </c>
       <c r="B39" s="9">
-        <v>120.785</v>
+        <v>231.54499999999999</v>
       </c>
       <c r="C39" s="9">
-        <v>120.845</v>
+        <v>231.625</v>
       </c>
       <c r="D39" s="9">
-        <v>120.66500000000001</v>
+        <v>231.22</v>
       </c>
       <c r="E39" s="9">
-        <v>120.72499999999999</v>
+        <v>231.3</v>
       </c>
       <c r="F39" s="9">
         <v>37</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="1"/>
-        <v>-4.9675042430767289E-4</v>
-      </c>
-      <c r="H39" s="28">
         <f t="shared" si="2"/>
-        <v>0.26037281479310509</v>
+        <v>-1.0581096547106444E-3</v>
+      </c>
+      <c r="H39" s="27">
+        <f t="shared" si="3"/>
+        <v>1.1384767740662411</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="3"/>
-        <v>4.9675042430767289E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.4550519337499193E-4</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="17"/>
@@ -4272,11 +4275,11 @@
       </c>
       <c r="O39">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <f t="shared" si="15"/>
@@ -4295,60 +4298,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
-        <v>44274.486111111109</v>
+    <row r="40" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A40" s="29">
+        <v>0.4861111111111111</v>
       </c>
       <c r="B40" s="9">
-        <v>120.72499999999999</v>
+        <v>231.3</v>
       </c>
       <c r="C40" s="9">
-        <v>121.045</v>
+        <v>231.7</v>
       </c>
       <c r="D40" s="9">
-        <v>120.69499999999999</v>
+        <v>231.23500000000001</v>
       </c>
       <c r="E40" s="9">
-        <v>120.88500000000001</v>
+        <v>231.41499999999999</v>
       </c>
       <c r="F40" s="9">
         <v>38</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="1"/>
-        <v>1.3253261544834195E-3</v>
-      </c>
-      <c r="H40" s="28">
         <f t="shared" si="2"/>
-        <v>2.6679919928212295</v>
+        <v>4.9718979680060812E-4</v>
+      </c>
+      <c r="H40" s="27">
+        <f t="shared" si="3"/>
+        <v>0.46988494489880817</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="3"/>
-        <v>2.650652308966721E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.7293558149588295E-3</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="19"/>
@@ -4371,51 +4374,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="25">
-        <v>44274.489583333336</v>
+    <row r="41" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A41" s="29">
+        <v>0.48958333333333331</v>
       </c>
       <c r="B41" s="9">
-        <v>120.88500000000001</v>
+        <v>231.41499999999999</v>
       </c>
       <c r="C41" s="9">
-        <v>121.155</v>
+        <v>231.77500000000001</v>
       </c>
       <c r="D41" s="9">
-        <v>120.875</v>
+        <v>231.4</v>
       </c>
       <c r="E41" s="9">
-        <v>121.105</v>
+        <v>231.73500000000001</v>
       </c>
       <c r="F41" s="9">
         <v>39</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="1"/>
-        <v>1.8199114861231654E-3</v>
-      </c>
-      <c r="H41" s="28">
         <f t="shared" si="2"/>
-        <v>1.3731800885137768</v>
+        <v>1.3827971393385113E-3</v>
+      </c>
+      <c r="H41" s="27">
+        <f t="shared" si="3"/>
+        <v>2.7812258985134908</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="3"/>
-        <v>2.233527732969318E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5556467817557792E-3</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N41" s="1">
@@ -4424,7 +4427,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="19"/>
@@ -4447,52 +4450,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="25">
-        <v>44274.493055555555</v>
+    <row r="42" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A42" s="29">
+        <v>0.49305555555555558</v>
       </c>
       <c r="B42" s="9">
-        <v>121.105</v>
+        <v>231.73500000000001</v>
       </c>
       <c r="C42" s="9">
-        <v>121.11499999999999</v>
+        <v>231.83500000000001</v>
       </c>
       <c r="D42" s="9">
-        <v>120.935</v>
+        <v>231.54499999999999</v>
       </c>
       <c r="E42" s="9">
-        <v>120.955</v>
+        <v>231.69</v>
       </c>
       <c r="F42" s="9">
         <v>40</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.2385946079848534E-3</v>
-      </c>
-      <c r="H42" s="28">
         <f t="shared" si="2"/>
-        <v>0.68057958721022627</v>
+        <v>-1.941873260405891E-4</v>
+      </c>
+      <c r="H42" s="27">
+        <f t="shared" si="3"/>
+        <v>0.14043081267399968</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="3"/>
-        <v>8.2572973865578669E-5</v>
+        <f t="shared" si="4"/>
+        <v>4.3152739120113194E-4</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="17"/>
@@ -4500,7 +4503,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="19"/>
@@ -4523,60 +4526,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
-        <v>44274.496527777781</v>
+    <row r="43" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A43" s="29">
+        <v>0.49652777777777773</v>
       </c>
       <c r="B43" s="9">
-        <v>120.955</v>
+        <v>231.69</v>
       </c>
       <c r="C43" s="9">
-        <v>120.97499999999999</v>
+        <v>231.92500000000001</v>
       </c>
       <c r="D43" s="9">
-        <v>120.845</v>
+        <v>231.61500000000001</v>
       </c>
       <c r="E43" s="9">
-        <v>120.925</v>
+        <v>231.88499999999999</v>
       </c>
       <c r="F43" s="9">
         <v>41</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="1"/>
-        <v>-2.4802612541855351E-4</v>
-      </c>
-      <c r="H43" s="28">
         <f t="shared" si="2"/>
-        <v>0.20024802612541859</v>
+        <v>8.4164184902237114E-4</v>
+      </c>
+      <c r="H43" s="27">
+        <f t="shared" si="3"/>
+        <v>4.3341749751806713</v>
       </c>
       <c r="I43" s="7">
-        <f t="shared" si="3"/>
-        <v>1.6535075027899649E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.0142863308732083E-3</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="19"/>
@@ -4599,52 +4602,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="25">
-        <v>44274.5</v>
+    <row r="44" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A44" s="29">
+        <v>0.5</v>
       </c>
       <c r="B44" s="9">
-        <v>120.925</v>
+        <v>231.88499999999999</v>
       </c>
       <c r="C44" s="9">
-        <v>120.94499999999999</v>
+        <v>231.935</v>
       </c>
       <c r="D44" s="9">
-        <v>120.745</v>
+        <v>231.30500000000001</v>
       </c>
       <c r="E44" s="9">
-        <v>120.755</v>
+        <v>231.38499999999999</v>
       </c>
       <c r="F44" s="9">
         <v>42</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.4058300599545314E-3</v>
-      </c>
-      <c r="H44" s="28">
         <f t="shared" si="2"/>
-        <v>5.6680724967264631</v>
+        <v>-2.1562412402699616E-3</v>
+      </c>
+      <c r="H44" s="27">
+        <f t="shared" si="3"/>
+        <v>2.5619463228623842</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="3"/>
-        <v>1.6539177175932206E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.1562412402704518E-4</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="17"/>
@@ -4675,51 +4678,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="25">
-        <v>44274.503472222219</v>
+    <row r="45" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A45" s="29">
+        <v>0.50347222222222221</v>
       </c>
       <c r="B45" s="9">
-        <v>120.755</v>
+        <v>231.38499999999999</v>
       </c>
       <c r="C45" s="9">
-        <v>120.755</v>
+        <v>231.45</v>
       </c>
       <c r="D45" s="9">
-        <v>120.485</v>
+        <v>231.09</v>
       </c>
       <c r="E45" s="9">
-        <v>120.645</v>
+        <v>231.27</v>
       </c>
       <c r="F45" s="9">
         <v>43</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="1"/>
-        <v>-9.1093536499523367E-4</v>
-      </c>
-      <c r="H45" s="28">
         <f t="shared" si="2"/>
-        <v>0.64796975889439723</v>
+        <v>-4.9700715258111229E-4</v>
+      </c>
+      <c r="H45" s="27">
+        <f t="shared" si="3"/>
+        <v>0.23049700715254243</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.8091708624153566E-4</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N45" s="1">
@@ -4751,51 +4754,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
-        <v>44274.506944444445</v>
+    <row r="46" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A46" s="29">
+        <v>0.50694444444444442</v>
       </c>
       <c r="B46" s="9">
-        <v>120.645</v>
+        <v>231.27</v>
       </c>
       <c r="C46" s="9">
-        <v>120.69499999999999</v>
+        <v>231.59</v>
       </c>
       <c r="D46" s="9">
-        <v>120.52500000000001</v>
+        <v>231.23</v>
       </c>
       <c r="E46" s="9">
-        <v>120.63500000000001</v>
+        <v>231.565</v>
       </c>
       <c r="F46" s="9">
         <v>44</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="1"/>
-        <v>-8.2887811347265991E-5</v>
-      </c>
-      <c r="H46" s="28">
         <f t="shared" si="2"/>
-        <v>9.0991978720355957E-2</v>
+        <v>1.2755653565096532E-3</v>
+      </c>
+      <c r="H46" s="27">
+        <f t="shared" si="3"/>
+        <v>2.5664929566611803</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="3"/>
-        <v>4.1443905673668334E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.3836641155359241E-3</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N46" s="1">
@@ -4827,52 +4830,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="25">
-        <v>44274.510416666664</v>
+    <row r="47" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A47" s="29">
+        <v>0.51041666666666663</v>
       </c>
       <c r="B47" s="9">
-        <v>120.63500000000001</v>
+        <v>231.565</v>
       </c>
       <c r="C47" s="9">
-        <v>120.755</v>
+        <v>231.715</v>
       </c>
       <c r="D47" s="9">
-        <v>120.515</v>
+        <v>231.28</v>
       </c>
       <c r="E47" s="9">
-        <v>120.625</v>
+        <v>231.505</v>
       </c>
       <c r="F47" s="9">
         <v>45</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="1"/>
-        <v>-8.2894682306172468E-5</v>
-      </c>
-      <c r="H47" s="28">
         <f t="shared" si="2"/>
-        <v>1.0000828946837272</v>
+        <v>-2.5910651436962528E-4</v>
+      </c>
+      <c r="H47" s="27">
+        <f t="shared" si="3"/>
+        <v>0.2031307239941213</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="3"/>
-        <v>9.9473618767348068E-4</v>
+        <f t="shared" si="4"/>
+        <v>6.4776628592406321E-4</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="17"/>
@@ -4884,7 +4887,7 @@
       </c>
       <c r="P47" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <f t="shared" si="15"/>
@@ -4903,51 +4906,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="25">
-        <v>44274.513888888891</v>
+    <row r="48" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A48" s="29">
+        <v>0.51388888888888895</v>
       </c>
       <c r="B48" s="9">
-        <v>120.625</v>
+        <v>231.505</v>
       </c>
       <c r="C48" s="9">
-        <v>120.72499999999999</v>
+        <v>231.65</v>
       </c>
       <c r="D48" s="9">
-        <v>120.565</v>
+        <v>231.4</v>
       </c>
       <c r="E48" s="9">
-        <v>120.645</v>
+        <v>231.60499999999999</v>
       </c>
       <c r="F48" s="9">
         <v>46</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="1"/>
-        <v>1.6580310880825717E-4</v>
-      </c>
-      <c r="H48" s="28">
         <f t="shared" si="2"/>
-        <v>2.0001658031073872</v>
+        <v>4.3195611325886837E-4</v>
+      </c>
+      <c r="H48" s="27">
+        <f t="shared" si="3"/>
+        <v>1.6670986227797675</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="3"/>
-        <v>8.2901554404140362E-4</v>
+        <f t="shared" si="4"/>
+        <v>6.2633636422543889E-4</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N48" s="1">
@@ -4979,51 +4982,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="25">
-        <v>44274.517361111109</v>
+    <row r="49" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A49" s="29">
+        <v>0.51736111111111105</v>
       </c>
       <c r="B49" s="9">
-        <v>120.645</v>
+        <v>231.60499999999999</v>
       </c>
       <c r="C49" s="9">
-        <v>120.675</v>
+        <v>231.66499999999999</v>
       </c>
       <c r="D49" s="9">
-        <v>120.545</v>
+        <v>231.45</v>
       </c>
       <c r="E49" s="9">
-        <v>120.605</v>
+        <v>231.60499999999999</v>
       </c>
       <c r="F49" s="9">
         <v>47</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="1"/>
-        <v>-3.3155124538929956E-4</v>
-      </c>
-      <c r="H49" s="28">
         <f t="shared" si="2"/>
-        <v>1.9996684487546108</v>
+        <v>0</v>
+      </c>
+      <c r="H49" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="3"/>
-        <v>2.4866343404203353E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.5906176464239665E-4</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N49" s="1">
@@ -5055,52 +5058,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="25">
-        <v>44274.520833333336</v>
+    <row r="50" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A50" s="29">
+        <v>0.52083333333333337</v>
       </c>
       <c r="B50" s="9">
-        <v>120.605</v>
+        <v>231.60499999999999</v>
       </c>
       <c r="C50" s="9">
-        <v>120.675</v>
+        <v>231.86</v>
       </c>
       <c r="D50" s="9">
-        <v>120.545</v>
+        <v>231.52</v>
       </c>
       <c r="E50" s="9">
-        <v>120.61499999999999</v>
+        <v>231.68</v>
       </c>
       <c r="F50" s="9">
         <v>48</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="1"/>
-        <v>8.2915302018912187E-5</v>
-      </c>
-      <c r="H50" s="28">
         <f t="shared" si="2"/>
-        <v>0.25008291530184124</v>
+        <v>3.2382720580305716E-4</v>
+      </c>
+      <c r="H50" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="3"/>
-        <v>5.8040711413285661E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.1010124997302472E-3</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" si="17"/>
@@ -5131,51 +5134,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
-        <v>44274.524305555555</v>
+    <row r="51" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A51" s="29">
+        <v>0.52430555555555558</v>
       </c>
       <c r="B51" s="9">
-        <v>120.61499999999999</v>
+        <v>231.68</v>
       </c>
       <c r="C51" s="9">
-        <v>120.625</v>
+        <v>231.78</v>
       </c>
       <c r="D51" s="9">
-        <v>120.455</v>
+        <v>231.375</v>
       </c>
       <c r="E51" s="9">
-        <v>120.535</v>
+        <v>231.71</v>
       </c>
       <c r="F51" s="9">
         <v>49</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="1"/>
-        <v>-6.6326742113334406E-4</v>
-      </c>
-      <c r="H51" s="28">
         <f t="shared" si="2"/>
-        <v>7.9993367325859719</v>
+        <v>1.2948895027624799E-4</v>
+      </c>
+      <c r="H51" s="27">
+        <f t="shared" si="3"/>
+        <v>0.39987051104964799</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="3"/>
-        <v>8.2908427641712189E-5</v>
+        <f t="shared" si="4"/>
+        <v>4.3162983425411913E-4</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N51" s="1">
@@ -5207,51 +5210,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="25">
-        <v>44274.527777777781</v>
+    <row r="52" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A52" s="29">
+        <v>0.52777777777777779</v>
       </c>
       <c r="B52" s="9">
-        <v>120.535</v>
+        <v>231.71</v>
       </c>
       <c r="C52" s="9">
-        <v>120.61499999999999</v>
+        <v>231.83500000000001</v>
       </c>
       <c r="D52" s="9">
-        <v>120.395</v>
+        <v>231.60499999999999</v>
       </c>
       <c r="E52" s="9">
-        <v>120.485</v>
+        <v>231.685</v>
       </c>
       <c r="F52" s="9">
         <v>50</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="1"/>
-        <v>-4.1481727299122381E-4</v>
-      </c>
-      <c r="H52" s="28">
         <f t="shared" si="2"/>
-        <v>0.6254148172729691</v>
+        <v>-1.0789348754911606E-4</v>
+      </c>
+      <c r="H52" s="27">
+        <f t="shared" si="3"/>
+        <v>0.83322543984594211</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="3"/>
-        <v>6.6370763678598162E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.3946743774545768E-4</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N52" s="1">
@@ -5283,51 +5286,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
-        <v>44274.53125</v>
+    <row r="53" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A53" s="29">
+        <v>0.53125</v>
       </c>
       <c r="B53" s="9">
-        <v>120.485</v>
+        <v>231.685</v>
       </c>
       <c r="C53" s="9">
-        <v>120.645</v>
+        <v>231.91</v>
       </c>
       <c r="D53" s="9">
-        <v>120.485</v>
+        <v>231.61500000000001</v>
       </c>
       <c r="E53" s="9">
-        <v>120.625</v>
+        <v>231.875</v>
       </c>
       <c r="F53" s="9">
         <v>51</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="1"/>
-        <v>1.161970369755576E-3</v>
-      </c>
-      <c r="H53" s="28">
         <f t="shared" si="2"/>
-        <v>2.8011619703699262</v>
+        <v>8.2007898655501099E-4</v>
+      </c>
+      <c r="H53" s="27">
+        <f t="shared" si="3"/>
+        <v>7.6008200789847358</v>
       </c>
       <c r="I53" s="7">
-        <f t="shared" si="3"/>
-        <v>1.3279661368634818E-3</v>
+        <f t="shared" si="4"/>
+        <v>9.7114616828881592E-4</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N53" s="1">
@@ -5359,52 +5362,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="25">
-        <v>44274.534722222219</v>
+    <row r="54" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A54" s="29">
+        <v>0.53472222222222221</v>
       </c>
       <c r="B54" s="9">
-        <v>120.625</v>
+        <v>231.875</v>
       </c>
       <c r="C54" s="9">
-        <v>120.645</v>
+        <v>231.98500000000001</v>
       </c>
       <c r="D54" s="9">
-        <v>120.515</v>
+        <v>231.72499999999999</v>
       </c>
       <c r="E54" s="9">
-        <v>120.575</v>
+        <v>231.83500000000001</v>
       </c>
       <c r="F54" s="9">
         <v>52</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="1"/>
-        <v>-4.1450777202070181E-4</v>
-      </c>
-      <c r="H54" s="28">
         <f t="shared" si="2"/>
-        <v>0.35672834937081466</v>
+        <v>-1.7250673854444007E-4</v>
+      </c>
+      <c r="H54" s="27">
+        <f t="shared" si="3"/>
+        <v>0.21035380905088988</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="3"/>
-        <v>1.6580310880825717E-4</v>
+        <f t="shared" si="4"/>
+        <v>4.7439353099736341E-4</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="17"/>
@@ -5435,51 +5438,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
-        <v>44274.538194444445</v>
+    <row r="55" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A55" s="29">
+        <v>0.53819444444444442</v>
       </c>
       <c r="B55" s="9">
-        <v>120.575</v>
+        <v>231.83500000000001</v>
       </c>
       <c r="C55" s="9">
-        <v>120.58499999999999</v>
+        <v>231.89500000000001</v>
       </c>
       <c r="D55" s="9">
-        <v>120.27500000000001</v>
+        <v>231.44</v>
       </c>
       <c r="E55" s="9">
-        <v>120.315</v>
+        <v>231.58</v>
       </c>
       <c r="F55" s="9">
         <v>53</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="1"/>
-        <v>-2.1563342318059722E-3</v>
-      </c>
-      <c r="H55" s="28">
         <f t="shared" si="2"/>
-        <v>5.2021563342322041</v>
+        <v>-1.099920201867688E-3</v>
+      </c>
+      <c r="H55" s="27">
+        <f t="shared" si="3"/>
+        <v>6.3760999202030222</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="3"/>
-        <v>8.293593199246033E-5</v>
+        <f t="shared" si="4"/>
+        <v>2.5880475338064689E-4</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N55" s="1">
@@ -5511,51 +5514,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="25">
-        <v>44274.541666666664</v>
+    <row r="56" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A56" s="29">
+        <v>0.54166666666666663</v>
       </c>
       <c r="B56" s="9">
-        <v>120.315</v>
+        <v>231.58</v>
       </c>
       <c r="C56" s="9">
-        <v>120.485</v>
+        <v>231.745</v>
       </c>
       <c r="D56" s="9">
-        <v>120.315</v>
+        <v>231.405</v>
       </c>
       <c r="E56" s="9">
-        <v>120.375</v>
+        <v>231.52500000000001</v>
       </c>
       <c r="F56" s="9">
         <v>54</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="1"/>
-        <v>4.9869093629225183E-4</v>
-      </c>
-      <c r="H56" s="28">
         <f t="shared" si="2"/>
-        <v>0.23126792170552726</v>
+        <v>-2.374989204594819E-4</v>
+      </c>
+      <c r="H56" s="27">
+        <f t="shared" si="3"/>
+        <v>0.21592377343029398</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="3"/>
-        <v>1.4129576528280074E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.1249676137832298E-4</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N56" s="1">
@@ -5587,51 +5590,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="25">
-        <v>44274.545138888891</v>
+    <row r="57" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A57" s="29">
+        <v>0.54513888888888895</v>
       </c>
       <c r="B57" s="9">
-        <v>120.375</v>
+        <v>231.52500000000001</v>
       </c>
       <c r="C57" s="9">
-        <v>120.44499999999999</v>
+        <v>231.71</v>
       </c>
       <c r="D57" s="9">
-        <v>120.13500000000001</v>
+        <v>231.27500000000001</v>
       </c>
       <c r="E57" s="9">
-        <v>120.13500000000001</v>
+        <v>231.28</v>
       </c>
       <c r="F57" s="9">
         <v>55</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.9937694704049418E-3</v>
-      </c>
-      <c r="H57" s="28">
         <f t="shared" si="2"/>
-        <v>3.9980062305293576</v>
+        <v>-1.0582010582010778E-3</v>
+      </c>
+      <c r="H57" s="27">
+        <f t="shared" si="3"/>
+        <v>4.4556036556031859</v>
       </c>
       <c r="I57" s="7">
-        <f t="shared" si="3"/>
-        <v>5.8151609553473043E-4</v>
+        <f t="shared" si="4"/>
+        <v>7.9904977864162516E-4</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N57" s="1">
@@ -5663,51 +5666,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="25">
-        <v>44274.548611111109</v>
+    <row r="58" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A58" s="29">
+        <v>0.54861111111111105</v>
       </c>
       <c r="B58" s="9">
-        <v>120.13500000000001</v>
+        <v>231.28</v>
       </c>
       <c r="C58" s="9">
-        <v>120.22499999999999</v>
+        <v>231.595</v>
       </c>
       <c r="D58" s="9">
-        <v>120.08499999999999</v>
+        <v>231.22</v>
       </c>
       <c r="E58" s="9">
-        <v>120.205</v>
+        <v>231.51499999999999</v>
       </c>
       <c r="F58" s="9">
         <v>56</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="1"/>
-        <v>5.8267782078489348E-4</v>
-      </c>
-      <c r="H58" s="28">
         <f t="shared" si="2"/>
-        <v>0.2922493444874294</v>
+        <v>1.0160843998615757E-3</v>
+      </c>
+      <c r="H58" s="27">
+        <f t="shared" si="3"/>
+        <v>0.96019975786917122</v>
       </c>
       <c r="I58" s="7">
-        <f t="shared" si="3"/>
-        <v>7.4915719815198893E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.3619854721549538E-3</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N58" s="1">
@@ -5739,51 +5742,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="25">
-        <v>44274.552083333336</v>
+    <row r="59" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A59" s="29">
+        <v>0.55208333333333337</v>
       </c>
       <c r="B59" s="9">
-        <v>120.205</v>
+        <v>231.51499999999999</v>
       </c>
       <c r="C59" s="9">
-        <v>120.215</v>
+        <v>231.54499999999999</v>
       </c>
       <c r="D59" s="9">
-        <v>120</v>
+        <v>231.04</v>
       </c>
       <c r="E59" s="9">
-        <v>120.035</v>
+        <v>231.11</v>
       </c>
       <c r="F59" s="9">
         <v>57</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.4142506551308323E-3</v>
-      </c>
-      <c r="H59" s="28">
         <f t="shared" si="2"/>
-        <v>2.4271571779165586</v>
+        <v>-1.7493466945985043E-3</v>
+      </c>
+      <c r="H59" s="27">
+        <f t="shared" si="3"/>
+        <v>1.7216549086245425</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="3"/>
-        <v>8.3191215007737753E-5</v>
+        <f t="shared" si="4"/>
+        <v>1.2958123663693989E-4</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N59" s="1">
@@ -5815,51 +5818,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="25">
-        <v>44274.555555555555</v>
+    <row r="60" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A60" s="29">
+        <v>0.55555555555555558</v>
       </c>
       <c r="B60" s="9">
-        <v>120.035</v>
+        <v>231.11</v>
       </c>
       <c r="C60" s="9">
-        <v>120.155</v>
+        <v>231.16</v>
       </c>
       <c r="D60" s="9">
-        <v>120</v>
+        <v>230.91499999999999</v>
       </c>
       <c r="E60" s="9">
-        <v>120.11499999999999</v>
+        <v>231.095</v>
       </c>
       <c r="F60" s="9">
         <v>58</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="1"/>
-        <v>6.6647227891863459E-4</v>
-      </c>
-      <c r="H60" s="28">
         <f t="shared" si="2"/>
-        <v>0.47125470757302157</v>
+        <v>-6.4904158193132178E-5</v>
+      </c>
+      <c r="H60" s="27">
+        <f t="shared" si="3"/>
+        <v>3.7101941195269154E-2</v>
       </c>
       <c r="I60" s="7">
-        <f t="shared" si="3"/>
-        <v>9.9970841837801103E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.1634719397682032E-4</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N60" s="1">
@@ -5891,52 +5894,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="25">
-        <v>44274.559027777781</v>
+    <row r="61" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A61" s="29">
+        <v>0.55902777777777779</v>
       </c>
       <c r="B61" s="9">
-        <v>120.11499999999999</v>
+        <v>231.095</v>
       </c>
       <c r="C61" s="9">
-        <v>120.295</v>
+        <v>231.345</v>
       </c>
       <c r="D61" s="9">
-        <v>120.075</v>
+        <v>231.04499999999999</v>
       </c>
       <c r="E61" s="9">
-        <v>120.285</v>
+        <v>231.345</v>
       </c>
       <c r="F61" s="9">
         <v>59</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="1"/>
-        <v>1.4153103276027283E-3</v>
-      </c>
-      <c r="H61" s="28">
         <f t="shared" si="2"/>
-        <v>2.1235846896724637</v>
+        <v>1.0818061836041454E-3</v>
+      </c>
+      <c r="H61" s="27">
+        <f t="shared" si="3"/>
+        <v>16.66774847283385</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" si="3"/>
-        <v>1.4985638762852835E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.0818061836041454E-3</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" si="17"/>
@@ -5952,7 +5955,7 @@
       </c>
       <c r="Q61">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <f t="shared" si="16"/>
@@ -5964,54 +5967,54 @@
       </c>
       <c r="T61">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="25">
-        <v>44274.5625</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A62" s="29">
+        <v>0.5625</v>
       </c>
       <c r="B62" s="9">
-        <v>120.285</v>
+        <v>231.345</v>
       </c>
       <c r="C62" s="9">
-        <v>120.33499999999999</v>
+        <v>231.45500000000001</v>
       </c>
       <c r="D62" s="9">
-        <v>120.155</v>
+        <v>231.14500000000001</v>
       </c>
       <c r="E62" s="9">
-        <v>120.22499999999999</v>
+        <v>231.34</v>
       </c>
       <c r="F62" s="9">
         <v>60</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="1"/>
-        <v>-4.9881531363014735E-4</v>
-      </c>
-      <c r="H62" s="28">
         <f t="shared" si="2"/>
-        <v>0.35244236115696792</v>
+        <v>-2.161274287317838E-5</v>
+      </c>
+      <c r="H62" s="27">
+        <f t="shared" si="3"/>
+        <v>1.9978387257108633E-2</v>
       </c>
       <c r="I62" s="7">
-        <f t="shared" si="3"/>
-        <v>4.1567942802508344E-4</v>
+        <f t="shared" si="4"/>
+        <v>4.7548034321041578E-4</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N62" s="1">
@@ -6043,51 +6046,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
-        <v>44274.565972222219</v>
+    <row r="63" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A63" s="29">
+        <v>0.56597222222222221</v>
       </c>
       <c r="B63" s="9">
-        <v>120.22499999999999</v>
+        <v>231.34</v>
       </c>
       <c r="C63" s="9">
-        <v>120.295</v>
+        <v>231.44499999999999</v>
       </c>
       <c r="D63" s="9">
-        <v>120.19499999999999</v>
+        <v>231.21</v>
       </c>
       <c r="E63" s="9">
-        <v>120.215</v>
+        <v>231.23500000000001</v>
       </c>
       <c r="F63" s="9">
         <v>61</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="1"/>
-        <v>-8.3177375753719325E-5</v>
-      </c>
-      <c r="H63" s="28">
         <f t="shared" si="2"/>
-        <v>0.16674984404226251</v>
+        <v>-4.5387740987287006E-4</v>
+      </c>
+      <c r="H63" s="27">
+        <f t="shared" si="3"/>
+        <v>21.000453877426924</v>
       </c>
       <c r="I63" s="7">
-        <f t="shared" si="3"/>
-        <v>5.822416302766263E-4</v>
+        <f t="shared" si="4"/>
+        <v>4.5387740987287006E-4</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N63" s="1">
@@ -6119,51 +6122,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
-        <v>44274.569444444445</v>
+    <row r="64" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A64" s="29">
+        <v>0.56944444444444442</v>
       </c>
       <c r="B64" s="9">
-        <v>120.215</v>
+        <v>231.23500000000001</v>
       </c>
       <c r="C64" s="9">
-        <v>120.245</v>
+        <v>231.35499999999999</v>
       </c>
       <c r="D64" s="9">
-        <v>120.08499999999999</v>
+        <v>231.095</v>
       </c>
       <c r="E64" s="9">
-        <v>120.155</v>
+        <v>231.20500000000001</v>
       </c>
       <c r="F64" s="9">
         <v>62</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="1"/>
-        <v>-4.9910576883086368E-4</v>
-      </c>
-      <c r="H64" s="28">
         <f t="shared" si="2"/>
-        <v>6.0004991057745158</v>
+        <v>-1.2973814517698936E-4</v>
+      </c>
+      <c r="H64" s="27">
+        <f t="shared" si="3"/>
+        <v>0.28584402385950142</v>
       </c>
       <c r="I64" s="7">
-        <f t="shared" si="3"/>
-        <v>2.4955288441543184E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.1895258070783451E-4</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N64" s="1">
@@ -6195,51 +6198,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="25">
-        <v>44274.572916666664</v>
+    <row r="65" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A65" s="29">
+        <v>0.57291666666666663</v>
       </c>
       <c r="B65" s="9">
-        <v>120.155</v>
+        <v>231.20500000000001</v>
       </c>
       <c r="C65" s="9">
-        <v>120.255</v>
+        <v>231.35499999999999</v>
       </c>
       <c r="D65" s="9">
-        <v>120.095</v>
+        <v>231.095</v>
       </c>
       <c r="E65" s="9">
-        <v>120.155</v>
+        <v>231.2</v>
       </c>
       <c r="F65" s="9">
         <v>63</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2.1625829891325335E-5</v>
+      </c>
+      <c r="H65" s="27">
+        <f t="shared" si="3"/>
+        <v>0.16668829249734748</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="3"/>
-        <v>8.3225833298651174E-4</v>
+        <f t="shared" si="4"/>
+        <v>6.4877489673656388E-4</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N65" s="1">
@@ -6271,51 +6274,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="25">
-        <v>44274.576388888891</v>
+    <row r="66" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A66" s="29">
+        <v>0.57638888888888895</v>
       </c>
       <c r="B66" s="9">
-        <v>120.155</v>
+        <v>231.2</v>
       </c>
       <c r="C66" s="9">
-        <v>120.155</v>
+        <v>231.22499999999999</v>
       </c>
       <c r="D66" s="9">
-        <v>119.905</v>
+        <v>230.85</v>
       </c>
       <c r="E66" s="9">
-        <v>119.935</v>
+        <v>231.01499999999999</v>
       </c>
       <c r="F66" s="9">
         <v>64</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.8309683325704203E-3</v>
-      </c>
-      <c r="H66" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-8.0017301038063271E-4</v>
+      </c>
+      <c r="H66" s="27">
+        <f t="shared" si="3"/>
+        <v>37.000800172834168</v>
       </c>
       <c r="I66" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.0813148788929794E-4</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L66:L79" si="20">+IFERROR(IF(AND(OR(K65=1,M65=1),(ABS(G66)/ABS(G65))&lt;0.9,G66&lt;0),1,0),0)</f>
         <v>0</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" ref="M66:M79" si="20">+IF(J66=1,1, 0)</f>
+        <f t="shared" ref="M66:M79" si="21">+IF(J66=1,1, 0)</f>
         <v>0</v>
       </c>
       <c r="N66" s="1">
@@ -6347,52 +6350,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="25">
-        <v>44274.579861111109</v>
+    <row r="67" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A67" s="29">
+        <v>0.57986111111111105</v>
       </c>
       <c r="B67" s="9">
-        <v>119.935</v>
+        <v>231.01499999999999</v>
       </c>
       <c r="C67" s="9">
-        <v>120.13500000000001</v>
+        <v>231.57</v>
       </c>
       <c r="D67" s="9">
-        <v>119.91</v>
+        <v>230.94</v>
       </c>
       <c r="E67" s="9">
-        <v>120.11499999999999</v>
+        <v>231.55500000000001</v>
       </c>
       <c r="F67" s="9">
         <v>65</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" ref="G67:G79" si="21">+(E67-B67)/B67</f>
-        <v>1.5008129403426239E-3</v>
-      </c>
-      <c r="H67" s="28">
-        <f t="shared" ref="H67:H79" si="22">+IFERROR(ABS(G67)/ABS(G66),0)</f>
-        <v>0.81968263112213147</v>
+        <f t="shared" ref="G67:G79" si="22">+(E67-B67)/B67</f>
+        <v>2.3375105512629937E-3</v>
+      </c>
+      <c r="H67" s="27">
+        <f t="shared" ref="H67:H79" si="23">+IFERROR(ABS(G67)/ABS(G66),0)</f>
+        <v>2.9212564294702568</v>
       </c>
       <c r="I67" s="7">
-        <f t="shared" ref="I67:I79" si="23">+(C67-B67)/B67</f>
-        <v>1.6675699337141189E-3</v>
+        <f t="shared" ref="I67:I79" si="24">+(C67-B67)/B67</f>
+        <v>2.4024413999091266E-3</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" ref="K67:K79" si="24">+IF(G67&gt;0.0008,1, 0)</f>
+        <f t="shared" ref="K67:K79" si="25">+IF(G67&gt;0.0008,1, 0)</f>
         <v>1</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" ref="L67:L79" si="25">+IFERROR(IF(AND(OR(K66=1,M66=1),(ABS(G67)/ABS(G66))&lt;0.9,J68=1,G67&lt;0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="17"/>
@@ -6423,51 +6426,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="25">
-        <v>44274.583333333336</v>
+    <row r="68" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A68" s="29">
+        <v>0.58333333333333337</v>
       </c>
       <c r="B68" s="9">
-        <v>120.11499999999999</v>
+        <v>231.55500000000001</v>
       </c>
       <c r="C68" s="9">
-        <v>120.185</v>
+        <v>231.69499999999999</v>
       </c>
       <c r="D68" s="9">
-        <v>119.97499999999999</v>
+        <v>231.10499999999999</v>
       </c>
       <c r="E68" s="9">
-        <v>119.985</v>
+        <v>231.14500000000001</v>
       </c>
       <c r="F68" s="9">
         <v>66</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="21"/>
-        <v>-1.0822961328726258E-3</v>
-      </c>
-      <c r="H68" s="28">
         <f t="shared" si="22"/>
-        <v>0.72113992608935396</v>
+        <v>-1.7706376454837795E-3</v>
+      </c>
+      <c r="H68" s="27">
+        <f t="shared" si="23"/>
+        <v>0.75748862161374042</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" si="23"/>
-        <v>5.8277484077764964E-4</v>
+        <f t="shared" si="24"/>
+        <v>6.0460797650660253E-4</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N68" s="1">
@@ -6499,51 +6502,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
-        <v>44274.586805555555</v>
+    <row r="69" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A69" s="29">
+        <v>0.58680555555555558</v>
       </c>
       <c r="B69" s="9">
-        <v>119.985</v>
+        <v>231.14500000000001</v>
       </c>
       <c r="C69" s="9">
-        <v>120.045</v>
+        <v>231.30500000000001</v>
       </c>
       <c r="D69" s="9">
-        <v>119.905</v>
+        <v>231.02500000000001</v>
       </c>
       <c r="E69" s="9">
-        <v>119.925</v>
+        <v>231.035</v>
       </c>
       <c r="F69" s="9">
         <v>67</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="21"/>
-        <v>-5.0006250781349558E-4</v>
-      </c>
-      <c r="H69" s="28">
         <f t="shared" si="22"/>
-        <v>0.46203852404630863</v>
+        <v>-4.7589175625695402E-4</v>
+      </c>
+      <c r="H69" s="27">
+        <f t="shared" si="23"/>
+        <v>0.26876857468312171</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="23"/>
-        <v>5.0006250781349558E-4</v>
+        <f t="shared" si="24"/>
+        <v>6.9220619091910529E-4</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N69" s="1">
@@ -6575,51 +6578,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="25">
-        <v>44274.590277777781</v>
+    <row r="70" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A70" s="29">
+        <v>0.59027777777777779</v>
       </c>
       <c r="B70" s="9">
-        <v>119.925</v>
+        <v>231.035</v>
       </c>
       <c r="C70" s="9">
-        <v>120.045</v>
+        <v>231.17</v>
       </c>
       <c r="D70" s="9">
-        <v>119.91500000000001</v>
+        <v>230.92500000000001</v>
       </c>
       <c r="E70" s="9">
-        <v>119.925</v>
+        <v>230.965</v>
       </c>
       <c r="F70" s="9">
         <v>68</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="28">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-3.0298439630356083E-4</v>
+      </c>
+      <c r="H70" s="27">
+        <f t="shared" si="23"/>
+        <v>0.63666662075979896</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="23"/>
-        <v>1.0006253908693313E-3</v>
+        <f t="shared" si="24"/>
+        <v>5.843270500140278E-4</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" ref="J70:J79" si="28">+IF(AND(C70&gt;C69,C70&gt;C68),1,0)</f>
         <v>0</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N70" s="1">
@@ -6651,52 +6654,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="25">
-        <v>44274.59375</v>
+    <row r="71" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A71" s="29">
+        <v>0.59375</v>
       </c>
       <c r="B71" s="9">
-        <v>119.925</v>
+        <v>230.965</v>
       </c>
       <c r="C71" s="9">
-        <v>120.095</v>
+        <v>231.16499999999999</v>
       </c>
       <c r="D71" s="9">
-        <v>119.91500000000001</v>
+        <v>230.905</v>
       </c>
       <c r="E71" s="9">
-        <v>120.005</v>
+        <v>231.01</v>
       </c>
       <c r="F71" s="9">
         <v>69</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="21"/>
-        <v>6.67083593912848E-4</v>
-      </c>
-      <c r="H71" s="28">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.948347152165371E-4</v>
+      </c>
+      <c r="H71" s="27">
+        <f t="shared" si="23"/>
+        <v>0.64305197757224342</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="23"/>
-        <v>1.4175526370648465E-3</v>
+        <f t="shared" si="24"/>
+        <v>8.6593206762924522E-4</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="N71" s="1">
         <f t="shared" si="17"/>
@@ -6727,51 +6730,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="25">
-        <v>44274.597222222219</v>
+    <row r="72" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A72" s="29">
+        <v>0.59722222222222221</v>
       </c>
       <c r="B72" s="9">
-        <v>120.005</v>
+        <v>231.01</v>
       </c>
       <c r="C72" s="9">
-        <v>120.08499999999999</v>
+        <v>231.1</v>
       </c>
       <c r="D72" s="9">
-        <v>119.97499999999999</v>
+        <v>230.77500000000001</v>
       </c>
       <c r="E72" s="9">
-        <v>120.035</v>
+        <v>231.01</v>
       </c>
       <c r="F72" s="9">
         <v>70</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="21"/>
-        <v>2.4998958376735249E-4</v>
-      </c>
-      <c r="H72" s="28">
         <f t="shared" si="22"/>
-        <v>0.37475001041625483</v>
+        <v>0</v>
+      </c>
+      <c r="H72" s="27">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="23"/>
-        <v>6.6663889004623387E-4</v>
+        <f t="shared" si="24"/>
+        <v>3.8959352408988101E-4</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N72" s="1">
@@ -6803,51 +6806,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="25">
-        <v>44274.600694444445</v>
+    <row r="73" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A73" s="29">
+        <v>0.60069444444444442</v>
       </c>
       <c r="B73" s="9">
-        <v>120.035</v>
+        <v>231.01</v>
       </c>
       <c r="C73" s="9">
-        <v>120.105</v>
+        <v>231.23500000000001</v>
       </c>
       <c r="D73" s="9">
-        <v>119.935</v>
+        <v>230.88499999999999</v>
       </c>
       <c r="E73" s="9">
-        <v>120.08499999999999</v>
+        <v>231.16</v>
       </c>
       <c r="F73" s="9">
         <v>71</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="21"/>
-        <v>4.1654517432413178E-4</v>
-      </c>
-      <c r="H73" s="28">
         <f t="shared" si="22"/>
-        <v>1.6662501214921848</v>
+        <v>6.4932254014980165E-4</v>
+      </c>
+      <c r="H73" s="27">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="23"/>
-        <v>5.8316324405387925E-4</v>
+        <f t="shared" si="24"/>
+        <v>9.7398381022476411E-4</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N73" s="1">
@@ -6879,52 +6882,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
-        <v>44274.604166666664</v>
+    <row r="74" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A74" s="29">
+        <v>0.60416666666666663</v>
       </c>
       <c r="B74" s="9">
-        <v>120.08499999999999</v>
+        <v>231.16</v>
       </c>
       <c r="C74" s="9">
-        <v>120.175</v>
+        <v>231.22499999999999</v>
       </c>
       <c r="D74" s="9">
-        <v>120.015</v>
+        <v>230.91</v>
       </c>
       <c r="E74" s="9">
-        <v>120.155</v>
+        <v>231.185</v>
       </c>
       <c r="F74" s="9">
         <v>72</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="21"/>
-        <v>5.8292043136118073E-4</v>
-      </c>
-      <c r="H74" s="28">
         <f t="shared" si="22"/>
-        <v>1.3994170795688661</v>
+        <v>1.0815019899639075E-4</v>
+      </c>
+      <c r="H74" s="27">
+        <f t="shared" si="23"/>
+        <v>0.16655851646770187</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="23"/>
-        <v>7.4946912603575313E-4</v>
+        <f t="shared" si="24"/>
+        <v>2.8119051739054215E-4</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="N74" s="1">
         <f t="shared" ref="N74:N79" si="31">+IF(AND(M74=1,L73=1,K72=1),1,0)</f>
@@ -6955,51 +6958,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="25">
-        <v>44274.607638888891</v>
+    <row r="75" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A75" s="29">
+        <v>0.60763888888888895</v>
       </c>
       <c r="B75" s="9">
-        <v>120.155</v>
+        <v>231.185</v>
       </c>
       <c r="C75" s="9">
-        <v>120.295</v>
+        <v>231.39500000000001</v>
       </c>
       <c r="D75" s="9">
-        <v>120.11499999999999</v>
+        <v>231.10499999999999</v>
       </c>
       <c r="E75" s="9">
-        <v>120.215</v>
+        <v>231.125</v>
       </c>
       <c r="F75" s="9">
         <v>73</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="21"/>
-        <v>4.9935499979195433E-4</v>
-      </c>
-      <c r="H75" s="28">
         <f t="shared" si="22"/>
-        <v>0.85664350214300722</v>
+        <v>-2.5953240910959742E-4</v>
+      </c>
+      <c r="H75" s="27">
+        <f t="shared" si="23"/>
+        <v>2.3997404675904357</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="23"/>
-        <v>1.1651616661811873E-3</v>
+        <f t="shared" si="24"/>
+        <v>9.0836343188359088E-4</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N75" s="1">
@@ -7031,52 +7034,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="25">
-        <v>44274.611111111109</v>
+    <row r="76" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A76" s="29">
+        <v>0.61111111111111105</v>
       </c>
       <c r="B76" s="9">
-        <v>120.215</v>
+        <v>231.125</v>
       </c>
       <c r="C76" s="9">
-        <v>120.33499999999999</v>
+        <v>231.38499999999999</v>
       </c>
       <c r="D76" s="9">
-        <v>120.185</v>
+        <v>231.11500000000001</v>
       </c>
       <c r="E76" s="9">
-        <v>120.33499999999999</v>
+        <v>231.375</v>
       </c>
       <c r="F76" s="9">
         <v>74</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="21"/>
-        <v>9.9821153766160896E-4</v>
-      </c>
-      <c r="H76" s="28">
         <f t="shared" si="22"/>
-        <v>1.9990017884621014</v>
+        <v>1.081665765278529E-3</v>
+      </c>
+      <c r="H76" s="27">
+        <f t="shared" si="23"/>
+        <v>4.1677483324317874</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="23"/>
-        <v>9.9821153766160896E-4</v>
+        <f t="shared" si="24"/>
+        <v>1.1249323958896307E-3</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="N76" s="1">
         <f t="shared" si="31"/>
@@ -7084,7 +7087,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" s="1">
         <f t="shared" si="19"/>
@@ -7092,66 +7095,66 @@
       </c>
       <c r="Q76">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76">
         <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="25">
-        <v>44274.614583333336</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A77" s="29">
+        <v>0.61458333333333337</v>
       </c>
       <c r="B77" s="9">
-        <v>120.33499999999999</v>
+        <v>231.375</v>
       </c>
       <c r="C77" s="9">
-        <v>120.41500000000001</v>
+        <v>231.45500000000001</v>
       </c>
       <c r="D77" s="9">
-        <v>120.145</v>
+        <v>230.88499999999999</v>
       </c>
       <c r="E77" s="9">
-        <v>120.285</v>
+        <v>231.10499999999999</v>
       </c>
       <c r="F77" s="9">
         <v>75</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="21"/>
-        <v>-4.155067104333499E-4</v>
-      </c>
-      <c r="H77" s="28">
         <f t="shared" si="22"/>
-        <v>0.41625115995624323</v>
+        <v>-1.1669367909238691E-3</v>
+      </c>
+      <c r="H77" s="27">
+        <f t="shared" si="23"/>
+        <v>1.078833063209117</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="23"/>
-        <v>6.648107366935015E-4</v>
+        <f t="shared" si="24"/>
+        <v>3.4575904916266884E-4</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N77" s="1">
@@ -7160,11 +7163,11 @@
       </c>
       <c r="O77">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" s="1">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
         <f t="shared" si="29"/>
@@ -7183,60 +7186,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="25">
-        <v>44274.618055555555</v>
+    <row r="78" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A78" s="29">
+        <v>0.61805555555555558</v>
       </c>
       <c r="B78" s="9">
-        <v>120.285</v>
+        <v>231.10499999999999</v>
       </c>
       <c r="C78" s="9">
-        <v>120.97</v>
+        <v>231.38</v>
       </c>
       <c r="D78" s="9">
-        <v>120.205</v>
+        <v>230.58500000000001</v>
       </c>
       <c r="E78" s="9">
-        <v>120.325</v>
+        <v>230.98500000000001</v>
       </c>
       <c r="F78" s="9">
         <v>76</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="21"/>
-        <v>3.3254354242013765E-4</v>
-      </c>
-      <c r="H78" s="28">
         <f t="shared" si="22"/>
-        <v>0.80033254354259076</v>
+        <v>-5.1924449925348272E-4</v>
+      </c>
+      <c r="H78" s="27">
+        <f t="shared" si="23"/>
+        <v>0.44496368894359267</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="23"/>
-        <v>5.6948081639439851E-3</v>
+        <f t="shared" si="24"/>
+        <v>1.1899353107894927E-3</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="N78" s="1">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" s="1">
         <f t="shared" si="19"/>
@@ -7259,51 +7262,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="25">
-        <v>44274.621527777781</v>
+    <row r="79" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A79" s="29">
+        <v>0.62152777777777779</v>
       </c>
       <c r="B79" s="9">
-        <v>120.325</v>
+        <v>230.98500000000001</v>
       </c>
       <c r="C79" s="9">
-        <v>120.36499999999999</v>
+        <v>231.10499999999999</v>
       </c>
       <c r="D79" s="9">
-        <v>119.855</v>
+        <v>229.905</v>
       </c>
       <c r="E79" s="9">
-        <v>119.86</v>
+        <v>229.905</v>
       </c>
       <c r="F79" s="9">
         <v>77</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="21"/>
-        <v>-3.8645335549553576E-3</v>
-      </c>
-      <c r="H79" s="28">
         <f t="shared" si="22"/>
-        <v>11.621135466443311</v>
+        <v>-4.6756282875511932E-3</v>
+      </c>
+      <c r="H79" s="27">
+        <f t="shared" si="23"/>
+        <v>9.004675628289446</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="23"/>
-        <v>3.3243299397458582E-4</v>
+        <f t="shared" si="24"/>
+        <v>5.1951425417224543E-4</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N79" s="1">
@@ -7409,24 +7412,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.1328125" style="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="1"/>
+    <col min="8" max="8" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.1328125" style="1"/>
+    <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="1"/>
+    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7470,7 +7473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -7563,7 +7566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>2051.0249999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -7599,7 +7602,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>2201.1000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>2301.15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="18">
         <v>5</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>2401.2000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J13" s="1">
         <v>100</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J15" s="1">
         <f t="shared" ref="J15:J16" si="2">+K14</f>
         <v>64</v>
@@ -7740,7 +7743,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J16" s="1">
         <f t="shared" si="2"/>
         <v>51.2</v>
@@ -7772,16 +7775,16 @@
       <selection pane="bottomLeft" activeCell="N7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="8" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="3"/>
+    <col min="1" max="1" width="12.3984375" style="8" customWidth="1"/>
+    <col min="2" max="6" width="9.1328125" style="3"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A2" s="10">
         <v>44267.354166666664</v>
       </c>
@@ -7874,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A3" s="10">
         <v>44267.357638888891</v>
       </c>
@@ -7926,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A4" s="10">
         <v>44267.361111111109</v>
       </c>
@@ -7978,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A5" s="10">
         <v>44267.364583333336</v>
       </c>
@@ -8030,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A6" s="10">
         <v>44267.368055555555</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A7" s="10">
         <v>44267.371527777781</v>
       </c>
@@ -8134,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A8" s="10">
         <v>44267.375</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A9" s="10">
         <v>44267.378472222219</v>
       </c>
@@ -8238,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A10" s="10">
         <v>44267.381944444445</v>
       </c>
@@ -8290,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A11" s="10">
         <v>44267.385416666664</v>
       </c>
@@ -8342,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A12" s="10">
         <v>44267.388888888891</v>
       </c>
@@ -8394,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A13" s="10">
         <v>44267.392361111109</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A14" s="10">
         <v>44267.395833333336</v>
       </c>
@@ -8498,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A15" s="10">
         <v>44267.399305555555</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A16" s="10">
         <v>44267.402777777781</v>
       </c>
@@ -8602,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A17" s="10">
         <v>44267.40625</v>
       </c>
@@ -8654,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A18" s="10">
         <v>44267.409722222219</v>
       </c>
@@ -8706,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A19" s="10">
         <v>44267.413194444445</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A20" s="10">
         <v>44267.416666666664</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A21" s="10">
         <v>44267.420138888891</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A22" s="10">
         <v>44267.423611111109</v>
       </c>
@@ -8914,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A23" s="10">
         <v>44267.427083333336</v>
       </c>
@@ -8966,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A24" s="10">
         <v>44267.430555555555</v>
       </c>
@@ -9018,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A25" s="10">
         <v>44267.434027777781</v>
       </c>
@@ -9070,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A26" s="10">
         <v>44267.4375</v>
       </c>
@@ -9122,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A27" s="10">
         <v>44267.440972222219</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A28" s="10">
         <v>44267.444444444445</v>
       </c>
@@ -9226,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A29" s="10">
         <v>44267.447916666664</v>
       </c>
@@ -9278,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A30" s="10">
         <v>44267.451388888891</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A31" s="10">
         <v>44267.454861111109</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A32" s="10">
         <v>44267.458333333336</v>
       </c>
@@ -9434,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A33" s="10">
         <v>44267.461805555555</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A34" s="10">
         <v>44267.465277777781</v>
       </c>
@@ -9538,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A35" s="10">
         <v>44267.46875</v>
       </c>
@@ -9590,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A36" s="10">
         <v>44267.472222222219</v>
       </c>
@@ -9642,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A37" s="10">
         <v>44267.475694444445</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A38" s="10">
         <v>44267.479166666664</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A39" s="10">
         <v>44267.482638888891</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A40" s="10">
         <v>44267.486111111109</v>
       </c>
@@ -9850,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A41" s="10">
         <v>44267.489583333336</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A42" s="10">
         <v>44267.493055555555</v>
       </c>
@@ -9954,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A43" s="10">
         <v>44267.496527777781</v>
       </c>
@@ -10006,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A44" s="10">
         <v>44267.5</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A45" s="10">
         <v>44267.503472222219</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A46" s="10">
         <v>44267.506944444445</v>
       </c>
@@ -10162,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A47" s="10">
         <v>44267.510416666664</v>
       </c>
@@ -10214,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A48" s="10">
         <v>44267.513888888891</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A49" s="10">
         <v>44267.517361111109</v>
       </c>
@@ -10318,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A50" s="10">
         <v>44267.520833333336</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A51" s="10">
         <v>44267.524305555555</v>
       </c>
@@ -10422,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A52" s="10">
         <v>44267.527777777781</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A53" s="10">
         <v>44267.53125</v>
       </c>
@@ -10526,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A54" s="10">
         <v>44267.534722222219</v>
       </c>
@@ -10578,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A55" s="10">
         <v>44267.538194444445</v>
       </c>
@@ -10630,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A56" s="10">
         <v>44267.541666666664</v>
       </c>
@@ -10682,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A57" s="10">
         <v>44267.545138888891</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A58" s="10">
         <v>44267.548611111109</v>
       </c>
@@ -10786,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A59" s="10">
         <v>44267.552083333336</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A60" s="10">
         <v>44267.555555555555</v>
       </c>
@@ -10890,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A61" s="10">
         <v>44267.559027777781</v>
       </c>
@@ -10942,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A62" s="10">
         <v>44267.5625</v>
       </c>
@@ -10994,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A63" s="10">
         <v>44267.565972222219</v>
       </c>
@@ -11046,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A64" s="10">
         <v>44267.569444444445</v>
       </c>
@@ -11098,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A65" s="10">
         <v>44267.572916666664</v>
       </c>
@@ -11150,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A66" s="10">
         <v>44267.576388888891</v>
       </c>
@@ -11202,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A67" s="10">
         <v>44267.579861111109</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A68" s="10">
         <v>44267.583333333336</v>
       </c>
@@ -11306,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A69" s="10">
         <v>44267.586805555555</v>
       </c>
@@ -11358,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A70" s="10">
         <v>44267.590277777781</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A71" s="10">
         <v>44267.59375</v>
       </c>
@@ -11462,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A72" s="10">
         <v>44267.597222222219</v>
       </c>
@@ -11514,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A73" s="10">
         <v>44267.600694444445</v>
       </c>
@@ -11566,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A74" s="10">
         <v>44267.604166666664</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A75" s="10">
         <v>44267.607638888891</v>
       </c>
@@ -11670,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A76" s="10">
         <v>44267.611111111109</v>
       </c>
@@ -11722,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A77" s="10">
         <v>44267.614583333336</v>
       </c>
@@ -11774,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A78" s="10">
         <v>44267.618055555555</v>
       </c>
@@ -11826,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A79" s="10">
         <v>44267.621527777781</v>
       </c>
@@ -11918,16 +11921,16 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="8" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="3"/>
+    <col min="1" max="1" width="12.3984375" style="8" customWidth="1"/>
+    <col min="2" max="6" width="9.1328125" style="3"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -11971,7 +11974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A2" s="10">
         <v>44267.354166666664</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A3" s="10">
         <v>44267.364583333336</v>
       </c>
@@ -12072,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A4" s="10">
         <v>44267.375</v>
       </c>
@@ -12124,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A5" s="10">
         <v>44267.385416666664</v>
       </c>
@@ -12176,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A6" s="10">
         <v>44267.395833333336</v>
       </c>
@@ -12228,7 +12231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A7" s="10">
         <v>44267.40625</v>
       </c>
@@ -12280,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A8" s="10">
         <v>44267.416666666664</v>
       </c>
@@ -12332,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A9" s="10">
         <v>44267.427083333336</v>
       </c>
@@ -12384,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A10" s="10">
         <v>44267.4375</v>
       </c>
@@ -12436,7 +12439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A11" s="10">
         <v>44267.447916666664</v>
       </c>
@@ -12488,7 +12491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A12" s="10">
         <v>44267.458333333336</v>
       </c>
@@ -12540,7 +12543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A13" s="10">
         <v>44267.46875</v>
       </c>
@@ -12592,7 +12595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A14" s="10">
         <v>44267.479166666664</v>
       </c>
@@ -12644,7 +12647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A15" s="10">
         <v>44267.489583333336</v>
       </c>
@@ -12696,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A16" s="10">
         <v>44267.5</v>
       </c>
@@ -12748,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A17" s="10">
         <v>44267.510416666664</v>
       </c>
@@ -12800,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A18" s="10">
         <v>44267.520833333336</v>
       </c>
@@ -12852,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A19" s="10">
         <v>44267.53125</v>
       </c>
@@ -12904,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A20" s="10">
         <v>44267.541666666664</v>
       </c>
@@ -12956,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A21" s="10">
         <v>44267.552083333336</v>
       </c>
@@ -13008,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A22" s="10">
         <v>44267.5625</v>
       </c>
@@ -13060,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A23" s="10">
         <v>44267.572916666664</v>
       </c>
@@ -13112,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A24" s="10">
         <v>44267.583333333336</v>
       </c>
@@ -13164,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A25" s="10">
         <v>44267.59375</v>
       </c>
@@ -13216,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A26" s="10">
         <v>44267.604166666664</v>
       </c>
@@ -13268,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A27" s="10">
         <v>44267.614583333336</v>
       </c>
@@ -13320,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -13335,7 +13338,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -13350,7 +13353,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -13365,7 +13368,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -13380,7 +13383,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -13395,7 +13398,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -13410,7 +13413,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -13425,7 +13428,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -13440,7 +13443,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -13455,7 +13458,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -13470,7 +13473,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -13485,7 +13488,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -13500,7 +13503,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -13515,7 +13518,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -13530,7 +13533,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -13545,7 +13548,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -13560,7 +13563,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -13575,7 +13578,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -13590,7 +13593,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -13605,7 +13608,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A47" s="10"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -13620,7 +13623,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A48" s="10"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -13635,7 +13638,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A49" s="10"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -13650,7 +13653,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A50" s="10"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -13665,7 +13668,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A51" s="10"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -13680,7 +13683,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A52" s="10"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -13695,7 +13698,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A53" s="10"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -13710,7 +13713,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A54" s="10"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -13725,7 +13728,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A55" s="10"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -13740,7 +13743,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A56" s="10"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -13755,7 +13758,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A57" s="10"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -13770,7 +13773,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A58" s="10"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -13785,7 +13788,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A59" s="10"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -13800,7 +13803,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A60" s="10"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -13815,7 +13818,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A61" s="10"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -13830,7 +13833,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -13845,7 +13848,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A63" s="10"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -13860,7 +13863,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A64" s="10"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -13875,7 +13878,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A65" s="10"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -13890,7 +13893,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A66" s="10"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -13905,7 +13908,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A67" s="10"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -13920,7 +13923,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A68" s="10"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -13935,7 +13938,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -13950,7 +13953,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A70" s="10"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -13965,7 +13968,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A71" s="10"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -13980,7 +13983,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -13995,7 +13998,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -14010,7 +14013,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -14025,7 +14028,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A75" s="10"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -14040,7 +14043,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A76" s="10"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -14055,7 +14058,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -14070,7 +14073,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A78" s="10"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -14085,7 +14088,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A79" s="10"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -14140,16 +14143,16 @@
       <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="8" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="3"/>
+    <col min="1" max="1" width="12.3984375" style="8" customWidth="1"/>
+    <col min="2" max="6" width="9.1328125" style="3"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -14193,7 +14196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A2" s="10">
         <v>44267.354166666664</v>
       </c>
@@ -14242,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A3" s="10">
         <v>44267.364583333336</v>
       </c>
@@ -14294,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A4" s="10">
         <v>44267.375</v>
       </c>
@@ -14346,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A5" s="10">
         <v>44267.385416666664</v>
       </c>
@@ -14398,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A6" s="10">
         <v>44267.395833333336</v>
       </c>
@@ -14450,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A7" s="10">
         <v>44267.40625</v>
       </c>
@@ -14502,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A8" s="10">
         <v>44267.416666666664</v>
       </c>
@@ -14554,7 +14557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A9" s="10">
         <v>44267.427083333336</v>
       </c>
@@ -14606,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A10" s="10">
         <v>44267.4375</v>
       </c>
@@ -14658,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A11" s="10">
         <v>44267.447916666664</v>
       </c>
@@ -14710,7 +14713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A12" s="10">
         <v>44267.458333333336</v>
       </c>
@@ -14762,7 +14765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A13" s="10">
         <v>44267.46875</v>
       </c>
@@ -14814,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A14" s="10">
         <v>44267.479166666664</v>
       </c>
@@ -14866,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A15" s="10">
         <v>44267.489583333336</v>
       </c>
@@ -14918,7 +14921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A16" s="10">
         <v>44267.5</v>
       </c>
@@ -14970,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A17" s="10">
         <v>44267.510416666664</v>
       </c>
@@ -15022,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A18" s="10">
         <v>44267.520833333336</v>
       </c>
@@ -15074,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A19" s="10">
         <v>44267.53125</v>
       </c>
@@ -15126,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A20" s="10">
         <v>44267.541666666664</v>
       </c>
@@ -15178,7 +15181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A21" s="10">
         <v>44267.552083333336</v>
       </c>
@@ -15230,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A22" s="10">
         <v>44267.5625</v>
       </c>
@@ -15282,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A23" s="10">
         <v>44267.572916666664</v>
       </c>
@@ -15334,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A24" s="10">
         <v>44267.583333333336</v>
       </c>
@@ -15386,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A25" s="10">
         <v>44267.59375</v>
       </c>
@@ -15438,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A26" s="10">
         <v>44267.604166666664</v>
       </c>
@@ -15490,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A27" s="10">
         <v>44267.614583333336</v>
       </c>
@@ -15542,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -15557,7 +15560,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -15572,7 +15575,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -15587,7 +15590,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -15602,7 +15605,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -15617,7 +15620,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -15632,7 +15635,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -15647,7 +15650,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -15662,7 +15665,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -15677,7 +15680,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -15692,7 +15695,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -15707,7 +15710,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -15722,7 +15725,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -15737,7 +15740,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -15752,7 +15755,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -15767,7 +15770,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -15782,7 +15785,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -15797,7 +15800,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -15812,7 +15815,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -15827,7 +15830,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A47" s="10"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -15842,7 +15845,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A48" s="10"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -15857,7 +15860,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A49" s="10"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -15872,7 +15875,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A50" s="10"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -15887,7 +15890,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A51" s="10"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -15902,7 +15905,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A52" s="10"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -15917,7 +15920,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A53" s="10"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -15932,7 +15935,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A54" s="10"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -15947,7 +15950,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A55" s="10"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -15962,7 +15965,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A56" s="10"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -15977,7 +15980,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A57" s="10"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -15992,7 +15995,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A58" s="10"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -16007,7 +16010,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A59" s="10"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -16022,7 +16025,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A60" s="10"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -16037,7 +16040,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A61" s="10"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -16052,7 +16055,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -16067,7 +16070,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A63" s="10"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -16082,7 +16085,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A64" s="10"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -16097,7 +16100,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A65" s="10"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -16112,7 +16115,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A66" s="10"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -16127,7 +16130,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A67" s="10"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -16142,7 +16145,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A68" s="10"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -16157,7 +16160,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -16172,7 +16175,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A70" s="10"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -16187,7 +16190,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A71" s="10"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -16202,7 +16205,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -16217,7 +16220,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -16232,7 +16235,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -16247,7 +16250,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A75" s="10"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -16262,7 +16265,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A76" s="10"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -16277,7 +16280,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -16292,7 +16295,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A78" s="10"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -16307,7 +16310,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A79" s="10"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>

--- a/RBR_Excel.xlsx
+++ b/RBR_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdearagao\PycharmProjects\IB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B423399-32EA-476C-B5E3-C2855CD2B6AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ADE86EB-95EB-4766-A099-42A5FB6F80F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBR" sheetId="12" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RBR!$A$1:$P$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1188,21 +1189,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="8" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="3"/>
+    <col min="1" max="1" width="7.59765625" style="8" customWidth="1"/>
+    <col min="2" max="6" width="9.1328125" style="3"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="28" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -1264,28 +1265,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A2" s="25">
         <v>0.35416666666666669</v>
       </c>
       <c r="B2" s="9">
-        <v>122.855</v>
+        <v>41.22</v>
       </c>
       <c r="C2" s="9">
-        <v>122.89</v>
+        <v>41.274999999999999</v>
       </c>
       <c r="D2" s="9">
-        <v>122.245</v>
+        <v>40.684950000000001</v>
       </c>
       <c r="E2" s="9">
-        <v>122.245</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
       </c>
       <c r="G2" s="7">
         <f>+(E2-B2)/B2</f>
-        <v>-4.9652028814456016E-3</v>
+        <v>-1.2615235322658807E-2</v>
       </c>
       <c r="H2" s="27">
         <f>+IFERROR(ABS(G2)/ABS(G1),0)</f>
@@ -1293,7 +1294,7 @@
       </c>
       <c r="I2" s="7">
         <f>+(C2-B2)/B2</f>
-        <v>2.8488868991898242E-4</v>
+        <v>1.3343037360504541E-3</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
@@ -1333,43 +1334,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A3" s="25">
         <v>0.3576388888888889</v>
       </c>
       <c r="B3" s="9">
-        <v>122.245</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="C3" s="9">
-        <v>122.395</v>
+        <v>40.865000000000002</v>
       </c>
       <c r="D3" s="9">
-        <v>122.02500000000001</v>
+        <v>40.484999999999999</v>
       </c>
       <c r="E3" s="9">
-        <v>122.175</v>
+        <v>40.594999999999999</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G66" si="2">+(E3-B3)/B3</f>
-        <v>-5.7262055707805949E-4</v>
+        <v>-2.5798525798526773E-3</v>
       </c>
       <c r="H3" s="27">
         <f t="shared" ref="H3:H66" si="3">+IFERROR(ABS(G3)/ABS(G2),0)</f>
-        <v>0.11532671891774601</v>
+        <v>0.2045029295029388</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" ref="I3:I66" si="4">+(C3-B3)/B3</f>
-        <v>1.2270440508813569E-3</v>
+        <v>4.0540540540540326E-3</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J4" si="5">+IF(AND(C3&gt;C2,C3&gt;C1),1,0)</f>
+        <f>+IF(AND(C3&gt;C2,C3&gt;C1),1,0)</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K66" si="6">+IF(G3&gt;0.0008,1, 0)</f>
+        <f t="shared" ref="K3:K66" si="5">+IF(G3&gt;0.0008,1, 0)</f>
         <v>0</v>
       </c>
       <c r="L3" s="1">
@@ -1381,70 +1382,70 @@
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N8" si="7">+IF(AND(M3=1,L2=1,K1=1),1,0)</f>
+        <f t="shared" ref="N3:N8" si="6">+IF(AND(M3=1,L2=1,K1=1),1,0)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O8" si="8">+IF(OR(N4=1,N5=1,N3=1),1,0)</f>
+        <f t="shared" ref="O3:O8" si="7">+IF(OR(N4=1,N5=1,N3=1),1,0)</f>
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P30" si="9">+IFERROR(IF(AND(OR(K2=1),(ABS(G3)/ABS(G2))&lt;0.9,G3&lt;0),1,0),0)</f>
+        <f t="shared" ref="P3:P30" si="8">+IFERROR(IF(AND(OR(K2=1),(ABS(G3)/ABS(G2))&lt;0.9,G3&lt;0),1,0),0)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q5" si="10">+IF(AND(K3=1,G2&gt;0),1,0)</f>
+        <f>+IF(AND(K3=1,G2&gt;0),1,0)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R5" si="11">+IF(AND(Q3=1,K3=1,G1&gt;0),1,0)</f>
+        <f>+IF(AND(Q3=1,K3=1,G1&gt;0),1,0)</f>
         <v>0</v>
       </c>
       <c r="S3" s="4">
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="12">+SUM(Q3:S3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" ref="T3:T66" si="9">+SUM(Q3:S3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A4" s="25">
         <v>0.3611111111111111</v>
       </c>
       <c r="B4" s="9">
-        <v>122.175</v>
+        <v>40.594999999999999</v>
       </c>
       <c r="C4" s="9">
-        <v>122.19499999999999</v>
+        <v>40.594999999999999</v>
       </c>
       <c r="D4" s="9">
-        <v>121.815</v>
+        <v>40.234999999999999</v>
       </c>
       <c r="E4" s="9">
-        <v>122.07</v>
+        <v>40.395000000000003</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="2"/>
-        <v>-8.5942295887050523E-4</v>
+        <v>-4.9267151126985032E-3</v>
       </c>
       <c r="H4" s="27">
         <f t="shared" si="3"/>
-        <v>1.5008594229587691</v>
+        <v>1.9096886198744907</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="4"/>
-        <v>1.6369961121339081E-4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
+        <f>+IF(AND(C4&gt;C3,C4&gt;C2),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L4" s="1">
@@ -1456,23 +1457,23 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="P4" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P4" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Q4">
-        <f t="shared" si="10"/>
+        <f>+IF(AND(K4=1,G3&gt;0),1,0)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f t="shared" si="11"/>
+        <f>+IF(AND(Q4=1,K4=1,G2&gt;0),1,0)</f>
         <v>0</v>
       </c>
       <c r="S4">
@@ -1480,47 +1481,47 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A5" s="25">
         <v>0.36458333333333331</v>
       </c>
       <c r="B5" s="9">
-        <v>122.07</v>
+        <v>40.395000000000003</v>
       </c>
       <c r="C5" s="9">
-        <v>122.19499999999999</v>
+        <v>40.534999999999997</v>
       </c>
       <c r="D5" s="9">
-        <v>121.625</v>
+        <v>39.625</v>
       </c>
       <c r="E5" s="9">
-        <v>121.685</v>
+        <v>39.625</v>
       </c>
       <c r="F5" s="9">
         <v>3</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>-3.1539280740557952E-3</v>
+        <v>-1.9061765069934473E-2</v>
       </c>
       <c r="H5" s="27">
         <f t="shared" si="3"/>
-        <v>3.6698205947404969</v>
+        <v>3.8690617650700321</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="4"/>
-        <v>1.0240026214467109E-3</v>
+        <v>3.4657754672606377E-3</v>
       </c>
       <c r="J5" s="1">
         <f>+IF(AND(C5&gt;C4,C5&gt;C3),1,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L5" s="1">
@@ -1532,71 +1533,71 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5">
+        <f>+IF(AND(K5=1,G4&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>+IF(AND(Q5=1,K5=1,G3&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S68" si="10">+IF(AND(R5=1,K5=1,G2&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ref="S5:S68" si="13">+IF(AND(R5=1,K5=1,G2&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A6" s="25">
         <v>0.36805555555555558</v>
       </c>
       <c r="B6" s="9">
-        <v>121.685</v>
+        <v>39.625</v>
       </c>
       <c r="C6" s="9">
-        <v>121.88500000000001</v>
+        <v>39.895000000000003</v>
       </c>
       <c r="D6" s="9">
-        <v>121.605</v>
+        <v>39.414949999999997</v>
       </c>
       <c r="E6" s="9">
-        <v>121.875</v>
+        <v>39.78</v>
       </c>
       <c r="F6" s="9">
         <v>4</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>1.561408554875274E-3</v>
+        <v>3.9116719242902496E-3</v>
       </c>
       <c r="H6" s="27">
         <f t="shared" si="3"/>
-        <v>0.49506790206137452</v>
+        <v>0.20521037322299224</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>1.6435879525003316E-3</v>
+        <v>6.8138801261830445E-3</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J69" si="14">+IF(AND(C6&gt;C5,C6&gt;C4),1,0)</f>
+        <f t="shared" ref="J6:J69" si="11">+IF(AND(C6&gt;C5,C6&gt;C4),1,0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L6" s="1">
@@ -1608,15 +1609,15 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="P6" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q6">
@@ -1628,51 +1629,51 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A7" s="25">
         <v>0.37152777777777773</v>
       </c>
       <c r="B7" s="9">
-        <v>121.875</v>
+        <v>39.78</v>
       </c>
       <c r="C7" s="9">
-        <v>121.91500000000001</v>
+        <v>39.94</v>
       </c>
       <c r="D7" s="9">
-        <v>121.625</v>
+        <v>39.514949999999999</v>
       </c>
       <c r="E7" s="9">
-        <v>121.63500000000001</v>
+        <v>39.57</v>
       </c>
       <c r="F7" s="9">
         <v>5</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>-1.9692307692307271E-3</v>
+        <v>-5.2790346907994178E-3</v>
       </c>
       <c r="H7" s="27">
         <f t="shared" si="3"/>
-        <v>1.2611886639675995</v>
+        <v>1.3495596749866154</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>3.2820512820517952E-4</v>
+        <v>4.0221216691804064E-3</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L7" s="1">
@@ -1684,72 +1685,72 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="P7" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q70" si="12">+IF(AND(K7=1,G6&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R70" si="13">+IF(AND(Q7=1,K7=1,G5&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q7">
-        <f t="shared" ref="Q7:Q70" si="15">+IF(AND(K7=1,G6&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ref="R7:R70" si="16">+IF(AND(Q7=1,K7=1,G5&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A8" s="25">
         <v>0.375</v>
       </c>
       <c r="B8" s="9">
-        <v>121.63500000000001</v>
+        <v>39.57</v>
       </c>
       <c r="C8" s="9">
-        <v>121.80500000000001</v>
+        <v>39.940049999999999</v>
       </c>
       <c r="D8" s="9">
-        <v>121.485</v>
+        <v>39.484999999999999</v>
       </c>
       <c r="E8" s="9">
-        <v>121.705</v>
+        <v>39.67</v>
       </c>
       <c r="F8" s="9">
         <v>6</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>5.7549225140784456E-4</v>
+        <v>2.5271670457417592E-3</v>
       </c>
       <c r="H8" s="27">
         <f t="shared" si="3"/>
-        <v>0.29224215891805233</v>
+        <v>0.47871764323622273</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>1.3976240391334871E-3</v>
+        <v>9.3517816527672257E-3</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
@@ -1757,75 +1758,75 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A9" s="25">
         <v>0.37847222222222227</v>
       </c>
       <c r="B9" s="9">
-        <v>121.705</v>
+        <v>39.67</v>
       </c>
       <c r="C9" s="9">
-        <v>122.015</v>
+        <v>39.815049999999999</v>
       </c>
       <c r="D9" s="9">
-        <v>121.66500000000001</v>
+        <v>39.305</v>
       </c>
       <c r="E9" s="9">
-        <v>121.89</v>
+        <v>39.36</v>
       </c>
       <c r="F9" s="9">
         <v>7</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>1.5200690193500864E-3</v>
+        <v>-7.8144693723217109E-3</v>
       </c>
       <c r="H9" s="27">
         <f t="shared" si="3"/>
-        <v>2.6413370738380828</v>
+        <v>3.0921855306276576</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>2.5471426810731051E-3</v>
+        <v>3.6564154272749603E-3</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
@@ -1833,7 +1834,7 @@
       </c>
       <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
         <f>+IF(AND(M9=1,L8=1,K7=1),1,0)</f>
@@ -1844,63 +1845,63 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A10" s="25">
         <v>0.38194444444444442</v>
       </c>
       <c r="B10" s="9">
-        <v>121.89</v>
+        <v>39.36</v>
       </c>
       <c r="C10" s="9">
-        <v>121.955</v>
+        <v>39.495049999999999</v>
       </c>
       <c r="D10" s="9">
-        <v>121.535</v>
+        <v>38.975000000000001</v>
       </c>
       <c r="E10" s="9">
-        <v>121.595</v>
+        <v>39.005000000000003</v>
       </c>
       <c r="F10" s="9">
         <v>8</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>-2.4202149479038617E-3</v>
+        <v>-9.0193089430893516E-3</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="3"/>
-        <v>1.5921743796466805</v>
+        <v>1.1541805992656515</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>5.3326770038557487E-4</v>
+        <v>3.4311483739837313E-3</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L10" s="1">
@@ -1912,71 +1913,71 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" ref="N10:N73" si="17">+IF(AND(M10=1,L9=1,K8=1),1,0)</f>
+        <f t="shared" ref="N10:N73" si="14">+IF(AND(M10=1,L9=1,K8=1),1,0)</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:O73" si="18">+IF(OR(N11=1,N12=1,N10=1),1,0)</f>
+        <f t="shared" ref="O10:O73" si="15">+IF(OR(N11=1,N12=1,N10=1),1,0)</f>
         <v>0</v>
       </c>
       <c r="P10" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A11" s="25">
         <v>0.38541666666666669</v>
       </c>
       <c r="B11" s="9">
-        <v>121.595</v>
+        <v>39.005000000000003</v>
       </c>
       <c r="C11" s="9">
-        <v>121.675</v>
+        <v>39.085050000000003</v>
       </c>
       <c r="D11" s="9">
-        <v>121.11499999999999</v>
+        <v>38.494999999999997</v>
       </c>
       <c r="E11" s="9">
-        <v>121.185</v>
+        <v>38.765000000000001</v>
       </c>
       <c r="F11" s="9">
         <v>9</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>-3.3718491714297182E-3</v>
+        <v>-6.1530573003461602E-3</v>
       </c>
       <c r="H11" s="27">
         <f t="shared" si="3"/>
-        <v>1.3932023576459864</v>
+        <v>0.68220939532852676</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>6.5792178954725354E-4</v>
+        <v>2.0523009870529406E-3</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L11" s="1">
@@ -1988,72 +1989,72 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P11" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A12" s="25">
         <v>0.3888888888888889</v>
       </c>
       <c r="B12" s="9">
-        <v>121.185</v>
+        <v>38.765000000000001</v>
       </c>
       <c r="C12" s="9">
-        <v>121.455</v>
+        <v>39.090000000000003</v>
       </c>
       <c r="D12" s="9">
-        <v>121.16500000000001</v>
+        <v>38.754950000000001</v>
       </c>
       <c r="E12" s="9">
-        <v>121.265</v>
+        <v>38.97</v>
       </c>
       <c r="F12" s="9">
         <v>10</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>6.6014770804966201E-4</v>
+        <v>5.2882755062555993E-3</v>
       </c>
       <c r="H12" s="27">
         <f t="shared" si="3"/>
-        <v>0.19578209892755932</v>
+        <v>0.85945494217290808</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>2.2279985146676242E-3</v>
+        <v>8.3838514123565806E-3</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
@@ -2064,71 +2065,71 @@
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A13" s="25">
         <v>0.3923611111111111</v>
       </c>
       <c r="B13" s="9">
-        <v>121.265</v>
+        <v>38.97</v>
       </c>
       <c r="C13" s="9">
-        <v>121.47499999999999</v>
+        <v>39.210050000000003</v>
       </c>
       <c r="D13" s="9">
-        <v>121.245</v>
+        <v>38.965000000000003</v>
       </c>
       <c r="E13" s="9">
-        <v>121.455</v>
+        <v>39.034999999999997</v>
       </c>
       <c r="F13" s="9">
         <v>11</v>
       </c>
       <c r="G13" s="24">
         <f t="shared" si="2"/>
-        <v>1.5668164763121899E-3</v>
+        <v>1.6679497049011478E-3</v>
       </c>
       <c r="H13" s="27">
         <f t="shared" si="3"/>
-        <v>2.3734331835237099</v>
+        <v>0.31540522102679769</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>1.7317445264502845E-3</v>
+        <v>6.1598665640237018E-3</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L13" s="1">
@@ -2137,74 +2138,74 @@
       </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="P13" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A14" s="25">
         <v>0.39583333333333331</v>
       </c>
       <c r="B14" s="9">
-        <v>121.455</v>
+        <v>39.034999999999997</v>
       </c>
       <c r="C14" s="9">
-        <v>121.465</v>
+        <v>39.265000000000001</v>
       </c>
       <c r="D14" s="9">
-        <v>121.265</v>
+        <v>38.865000000000002</v>
       </c>
       <c r="E14" s="9">
-        <v>121.355</v>
+        <v>39.01</v>
       </c>
       <c r="F14" s="9">
         <v>12</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>-8.2335021201263286E-4</v>
+        <v>-6.4045087741766574E-4</v>
       </c>
       <c r="H14" s="27">
         <f t="shared" si="3"/>
-        <v>0.52549243926164801</v>
+        <v>0.38397493373795855</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>8.233502120131008E-5</v>
+        <v>5.8921480722429614E-3</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L14" s="1">
@@ -2213,74 +2214,74 @@
       </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="P14" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A15" s="25">
         <v>0.39930555555555558</v>
       </c>
       <c r="B15" s="9">
-        <v>121.355</v>
+        <v>39.01</v>
       </c>
       <c r="C15" s="9">
-        <v>121.55500000000001</v>
+        <v>39.305</v>
       </c>
       <c r="D15" s="9">
-        <v>121.295</v>
+        <v>38.945</v>
       </c>
       <c r="E15" s="9">
-        <v>121.52500000000001</v>
+        <v>39.274999999999999</v>
       </c>
       <c r="F15" s="9">
         <v>13</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>1.4008487495364979E-3</v>
+        <v>6.7931299666752262E-3</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="3"/>
-        <v>1.7014008487496501</v>
+        <v>10.606793129967299</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>1.6480573523958866E-3</v>
+        <v>7.5621635478082981E-3</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L15" s="1">
@@ -2292,148 +2293,148 @@
         <v>1</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="P15" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A16" s="25">
         <v>0.40277777777777773</v>
       </c>
       <c r="B16" s="9">
-        <v>121.52500000000001</v>
+        <v>39.274999999999999</v>
       </c>
       <c r="C16" s="9">
-        <v>121.61499999999999</v>
+        <v>39.315049999999999</v>
       </c>
       <c r="D16" s="9">
-        <v>121.345</v>
+        <v>39.024999999999999</v>
       </c>
       <c r="E16" s="9">
-        <v>121.595</v>
+        <v>39.134999999999998</v>
       </c>
       <c r="F16" s="9">
         <v>14</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>5.76013166015167E-4</v>
+        <v>-3.5646085295989961E-3</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="3"/>
-        <v>0.41118869271629349</v>
+        <v>0.52473727826285488</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>7.4058835630519805E-4</v>
+        <v>1.0197326543603007E-3</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A17" s="25">
         <v>0.40625</v>
       </c>
       <c r="B17" s="9">
-        <v>121.595</v>
+        <v>39.134999999999998</v>
       </c>
       <c r="C17" s="9">
-        <v>121.745</v>
+        <v>39.424999999999997</v>
       </c>
       <c r="D17" s="9">
-        <v>121.495</v>
+        <v>39.115000000000002</v>
       </c>
       <c r="E17" s="9">
-        <v>121.505</v>
+        <v>39.314999999999998</v>
       </c>
       <c r="F17" s="9">
         <v>15</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>-7.4016201324070404E-4</v>
+        <v>4.5994633959371336E-3</v>
       </c>
       <c r="H17" s="27">
         <f t="shared" si="3"/>
-        <v>1.2849741237012191</v>
+        <v>1.2903137491102157</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>1.2336033554011736E-3</v>
+        <v>7.4102465823431499E-3</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
@@ -2444,71 +2445,71 @@
         <v>1</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="O17">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A18" s="25">
         <v>0.40972222222222227</v>
       </c>
       <c r="B18" s="9">
-        <v>121.505</v>
+        <v>39.314999999999998</v>
       </c>
       <c r="C18" s="9">
-        <v>121.685</v>
+        <v>39.495049999999999</v>
       </c>
       <c r="D18" s="9">
-        <v>121.36499999999999</v>
+        <v>39.184950000000001</v>
       </c>
       <c r="E18" s="9">
-        <v>121.66500000000001</v>
+        <v>39.465000000000003</v>
       </c>
       <c r="F18" s="9">
         <v>16</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>1.3168182379326844E-3</v>
+        <v>3.8153376573828233E-3</v>
       </c>
       <c r="H18" s="27">
         <f t="shared" si="3"/>
-        <v>1.7790945960157634</v>
+        <v>0.8295179956759835</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>1.481420517674226E-3</v>
+        <v>4.5796769680783765E-3</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L18" s="1">
@@ -2517,74 +2518,74 @@
       </c>
       <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P18" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A19" s="25">
         <v>0.41319444444444442</v>
       </c>
       <c r="B19" s="9">
-        <v>121.66500000000001</v>
+        <v>39.465000000000003</v>
       </c>
       <c r="C19" s="9">
-        <v>121.765</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="D19" s="9">
-        <v>121.595</v>
+        <v>39.39</v>
       </c>
       <c r="E19" s="9">
-        <v>121.715</v>
+        <v>39.465000000000003</v>
       </c>
       <c r="F19" s="9">
         <v>17</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>4.1096453376071308E-4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="27">
         <f t="shared" si="3"/>
-        <v>0.31208903546620043</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>8.2192906752142616E-4</v>
+        <v>1.3936399341188321E-3</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
@@ -2596,71 +2597,71 @@
         <v>1</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P19" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A20" s="25">
         <v>0.41666666666666669</v>
       </c>
       <c r="B20" s="9">
-        <v>121.715</v>
+        <v>39.465000000000003</v>
       </c>
       <c r="C20" s="9">
-        <v>121.855</v>
+        <v>39.575049999999997</v>
       </c>
       <c r="D20" s="9">
-        <v>121.675</v>
+        <v>39.335000000000001</v>
       </c>
       <c r="E20" s="9">
-        <v>121.77500000000001</v>
+        <v>39.484999999999999</v>
       </c>
       <c r="F20" s="9">
         <v>18</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>4.9295485355134764E-4</v>
+        <v>5.0677815786129526E-4</v>
       </c>
       <c r="H20" s="27">
         <f t="shared" si="3"/>
-        <v>1.1995070451465624</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>1.1502279916197722E-3</v>
+        <v>2.7885468136321797E-3</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L20" s="1">
@@ -2672,72 +2673,72 @@
         <v>1</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P20" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A21" s="25">
         <v>0.4201388888888889</v>
       </c>
       <c r="B21" s="9">
-        <v>121.77500000000001</v>
+        <v>39.484999999999999</v>
       </c>
       <c r="C21" s="9">
-        <v>122.035</v>
+        <v>39.485050000000001</v>
       </c>
       <c r="D21" s="9">
-        <v>121.735</v>
+        <v>39.184950000000001</v>
       </c>
       <c r="E21" s="9">
-        <v>121.955</v>
+        <v>39.244999999999997</v>
       </c>
       <c r="F21" s="9">
         <v>19</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>1.4781359063846652E-3</v>
+        <v>-6.0782575661644167E-3</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="3"/>
-        <v>2.9985218640933784</v>
+        <v>11.993921742436324</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>2.135085198111196E-3</v>
+        <v>1.2663036596596132E-6</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
@@ -2745,150 +2746,150 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P21" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A22" s="25">
         <v>0.4236111111111111</v>
       </c>
       <c r="B22" s="9">
-        <v>121.955</v>
+        <v>39.244999999999997</v>
       </c>
       <c r="C22" s="9">
-        <v>121.995</v>
+        <v>39.354999999999997</v>
       </c>
       <c r="D22" s="9">
-        <v>121.795</v>
+        <v>38.975000000000001</v>
       </c>
       <c r="E22" s="9">
-        <v>121.905</v>
+        <v>39.134999999999998</v>
       </c>
       <c r="F22" s="9">
         <v>20</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>-4.099872903939745E-4</v>
+        <v>-2.8029048286405769E-3</v>
       </c>
       <c r="H22" s="27">
         <f t="shared" si="3"/>
-        <v>0.27736779048737942</v>
+        <v>0.46113623816196775</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>3.2798983231524948E-4</v>
+        <v>2.8029048286405769E-3</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P22" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A23" s="25">
         <v>0.42708333333333331</v>
       </c>
       <c r="B23" s="9">
-        <v>121.905</v>
+        <v>39.134999999999998</v>
       </c>
       <c r="C23" s="9">
-        <v>121.985</v>
+        <v>39.225000000000001</v>
       </c>
       <c r="D23" s="9">
-        <v>121.86499999999999</v>
+        <v>38.924950000000003</v>
       </c>
       <c r="E23" s="9">
-        <v>121.905</v>
+        <v>38.99</v>
       </c>
       <c r="F23" s="9">
         <v>21</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.7051232911714839E-3</v>
       </c>
       <c r="H23" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3218869414729602</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>6.562487182642081E-4</v>
+        <v>2.2997316979686574E-3</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L23" s="1">
@@ -2900,71 +2901,71 @@
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P23" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A24" s="25">
         <v>0.43055555555555558</v>
       </c>
       <c r="B24" s="9">
-        <v>121.905</v>
+        <v>38.99</v>
       </c>
       <c r="C24" s="9">
-        <v>122.215</v>
+        <v>39.145000000000003</v>
       </c>
       <c r="D24" s="9">
-        <v>121.86499999999999</v>
+        <v>38.895000000000003</v>
       </c>
       <c r="E24" s="9">
-        <v>122.215</v>
+        <v>39.094999999999999</v>
       </c>
       <c r="F24" s="9">
         <v>22</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>2.5429637832738794E-3</v>
+        <v>2.6929982046677834E-3</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.72683092923914894</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>2.5429637832738794E-3</v>
+        <v>3.9753783021287802E-3</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L24" s="1">
@@ -2973,75 +2974,75 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P24" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A25" s="25">
         <v>0.43402777777777773</v>
       </c>
       <c r="B25" s="9">
-        <v>122.215</v>
+        <v>39.094999999999999</v>
       </c>
       <c r="C25" s="9">
-        <v>122.44499999999999</v>
+        <v>39.384999999999998</v>
       </c>
       <c r="D25" s="9">
-        <v>122.16500000000001</v>
+        <v>39.094949999999997</v>
       </c>
       <c r="E25" s="9">
-        <v>122.22499999999999</v>
+        <v>39.325000000000003</v>
       </c>
       <c r="F25" s="9">
         <v>23</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>8.1823016814555532E-5</v>
+        <v>5.8831052564267553E-3</v>
       </c>
       <c r="H25" s="27">
         <f t="shared" si="3"/>
-        <v>3.2176241499284899E-2</v>
+        <v>2.1845930852198667</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>1.8819293867364051E-3</v>
+        <v>7.4178283667988018E-3</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
@@ -3052,71 +3053,71 @@
         <v>1</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A26" s="25">
         <v>0.4375</v>
       </c>
       <c r="B26" s="9">
-        <v>122.22499999999999</v>
+        <v>39.325000000000003</v>
       </c>
       <c r="C26" s="9">
-        <v>122.245</v>
+        <v>39.335050000000003</v>
       </c>
       <c r="D26" s="9">
-        <v>122.01</v>
+        <v>38.784999999999997</v>
       </c>
       <c r="E26" s="9">
-        <v>122.05500000000001</v>
+        <v>38.81</v>
       </c>
       <c r="F26" s="9">
         <v>24</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>-1.3908774800571691E-3</v>
+        <v>-1.3095994914176746E-2</v>
       </c>
       <c r="H26" s="27">
         <f t="shared" si="3"/>
-        <v>16.998609122534155</v>
+        <v>2.2260344398683958</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>1.6363264471270389E-4</v>
+        <v>2.5556261919897446E-4</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
@@ -3128,71 +3129,71 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P26" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A27" s="25">
         <v>0.44097222222222227</v>
       </c>
       <c r="B27" s="9">
-        <v>122.05500000000001</v>
+        <v>38.81</v>
       </c>
       <c r="C27" s="9">
-        <v>122.065</v>
+        <v>38.835050000000003</v>
       </c>
       <c r="D27" s="9">
-        <v>121.795</v>
+        <v>38.625</v>
       </c>
       <c r="E27" s="9">
-        <v>121.955</v>
+        <v>38.744999999999997</v>
       </c>
       <c r="F27" s="9">
         <v>25</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>-8.1930277333995755E-4</v>
+        <v>-1.6748260757537962E-3</v>
       </c>
       <c r="H27" s="27">
         <f t="shared" si="3"/>
-        <v>0.58905459689108042</v>
+        <v>0.12788841830877276</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>8.1930277333914253E-5</v>
+        <v>6.4545220304045958E-4</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L27" s="1">
@@ -3204,71 +3205,71 @@
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P27" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A28" s="25">
         <v>0.44444444444444442</v>
       </c>
       <c r="B28" s="9">
-        <v>121.955</v>
+        <v>38.744999999999997</v>
       </c>
       <c r="C28" s="9">
-        <v>122.04</v>
+        <v>38.795000000000002</v>
       </c>
       <c r="D28" s="9">
-        <v>121.845</v>
+        <v>38.524999999999999</v>
       </c>
       <c r="E28" s="9">
-        <v>121.91500000000001</v>
+        <v>38.674999999999997</v>
       </c>
       <c r="F28" s="9">
         <v>26</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>-3.2798983231513299E-4</v>
+        <v>-1.8066847335140093E-3</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="3"/>
-        <v>0.40032798983220147</v>
+        <v>1.0787297616565152</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>6.9697839366986147E-4</v>
+        <v>1.2904890953672544E-3</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L28" s="1">
@@ -3280,71 +3281,71 @@
         <v>0</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P28" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A29" s="25">
         <v>0.44791666666666669</v>
       </c>
       <c r="B29" s="9">
-        <v>121.91500000000001</v>
+        <v>38.674999999999997</v>
       </c>
       <c r="C29" s="9">
-        <v>121.97499999999999</v>
+        <v>38.704999999999998</v>
       </c>
       <c r="D29" s="9">
-        <v>121.735</v>
+        <v>38.314999999999998</v>
       </c>
       <c r="E29" s="9">
-        <v>121.795</v>
+        <v>38.325000000000003</v>
       </c>
       <c r="F29" s="9">
         <v>27</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>-9.8429233482347982E-4</v>
+        <v>-9.049773755655962E-3</v>
       </c>
       <c r="H29" s="27">
         <f t="shared" si="3"/>
-        <v>3.0009842923355339</v>
+        <v>5.0090497737555539</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>4.9214616741162336E-4</v>
+        <v>7.7569489334198161E-4</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L29" s="1">
@@ -3356,71 +3357,71 @@
         <v>0</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P29" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A30" s="25">
         <v>0.4513888888888889</v>
       </c>
       <c r="B30" s="9">
-        <v>121.795</v>
+        <v>38.325000000000003</v>
       </c>
       <c r="C30" s="9">
-        <v>121.825</v>
+        <v>38.395000000000003</v>
       </c>
       <c r="D30" s="9">
-        <v>121.655</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="E30" s="9">
-        <v>121.675</v>
+        <v>38.115000000000002</v>
       </c>
       <c r="F30" s="9">
         <v>28</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>-9.852621207767523E-4</v>
+        <v>-5.4794520547945423E-3</v>
       </c>
       <c r="H30" s="27">
         <f t="shared" si="3"/>
-        <v>1.0009852621207767</v>
+        <v>0.60547945205480669</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>2.4631553019418808E-4</v>
+        <v>1.8264840182648475E-3</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L30" s="1">
@@ -3432,71 +3433,71 @@
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P30" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A31" s="25">
         <v>0.4548611111111111</v>
       </c>
       <c r="B31" s="9">
-        <v>121.675</v>
+        <v>38.115000000000002</v>
       </c>
       <c r="C31" s="9">
-        <v>121.675</v>
+        <v>38.155050000000003</v>
       </c>
       <c r="D31" s="9">
-        <v>121.44499999999999</v>
+        <v>37.784999999999997</v>
       </c>
       <c r="E31" s="9">
-        <v>121.55500000000001</v>
+        <v>38.094999999999999</v>
       </c>
       <c r="F31" s="9">
         <v>29</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>-9.8623381960131779E-4</v>
+        <v>-5.2472779745515216E-4</v>
       </c>
       <c r="H31" s="27">
         <f t="shared" si="3"/>
-        <v>1.0009862338194828</v>
+        <v>9.5762823035564895E-2</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.0507674144037992E-3</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L31" s="1">
@@ -3508,11 +3509,11 @@
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P31" s="1">
@@ -3520,59 +3521,59 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A32" s="25">
         <v>0.45833333333333331</v>
       </c>
       <c r="B32" s="9">
-        <v>121.55500000000001</v>
+        <v>38.094999999999999</v>
       </c>
       <c r="C32" s="9">
-        <v>121.685</v>
+        <v>38.185000000000002</v>
       </c>
       <c r="D32" s="9">
-        <v>121.55500000000001</v>
+        <v>37.924950000000003</v>
       </c>
       <c r="E32" s="9">
-        <v>121.58499999999999</v>
+        <v>38.03</v>
       </c>
       <c r="F32" s="9">
         <v>30</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>2.4680185924056536E-4</v>
+        <v>-1.7062606641290912E-3</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="3"/>
-        <v>0.25024680185915171</v>
+        <v>3.2517062606635077</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>1.069474723376212E-3</v>
+        <v>2.3625147657173754E-3</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L32" s="1">
@@ -3584,71 +3585,71 @@
         <v>0</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" ref="P32:P79" si="19">+IFERROR(IF(AND(OR(K31=1),(ABS(G32)/ABS(G31))&lt;0.9,G32&lt;0),1,0),0)</f>
+        <f t="shared" ref="P32:P79" si="16">+IFERROR(IF(AND(OR(K31=1),(ABS(G32)/ABS(G31))&lt;0.9,G32&lt;0),1,0),0)</f>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A33" s="25">
         <v>0.46180555555555558</v>
       </c>
       <c r="B33" s="9">
-        <v>121.58499999999999</v>
+        <v>38.03</v>
       </c>
       <c r="C33" s="9">
-        <v>121.705</v>
+        <v>38.325049999999997</v>
       </c>
       <c r="D33" s="9">
-        <v>121.515</v>
+        <v>37.994999999999997</v>
       </c>
       <c r="E33" s="9">
-        <v>121.685</v>
+        <v>38.325000000000003</v>
       </c>
       <c r="F33" s="9">
         <v>31</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
-        <v>8.2246987704082358E-4</v>
+        <v>7.7570339205890529E-3</v>
       </c>
       <c r="H33" s="27">
         <f t="shared" si="3"/>
-        <v>3.3325108634580296</v>
+        <v>4.5462185723823128</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>9.869638524489415E-4</v>
+        <v>7.7583486721008741E-3</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L33" s="1">
@@ -3660,71 +3661,71 @@
         <v>1</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A34" s="25">
         <v>0.46527777777777773</v>
       </c>
       <c r="B34" s="9">
-        <v>121.685</v>
+        <v>38.325000000000003</v>
       </c>
       <c r="C34" s="9">
-        <v>121.72499999999999</v>
+        <v>38.405050000000003</v>
       </c>
       <c r="D34" s="9">
-        <v>121.535</v>
+        <v>38.184950000000001</v>
       </c>
       <c r="E34" s="9">
-        <v>121.63500000000001</v>
+        <v>38.31</v>
       </c>
       <c r="F34" s="9">
         <v>32</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>-4.1089698812505368E-4</v>
+        <v>-3.9138943248533771E-4</v>
       </c>
       <c r="H34" s="27">
         <f t="shared" si="3"/>
-        <v>0.49958910301180387</v>
+        <v>5.045606819463494E-2</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>3.2871759049999625E-4</v>
+        <v>2.088714938030005E-3</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="1">
@@ -3736,148 +3737,148 @@
         <v>1</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A35" s="25">
         <v>0.46875</v>
       </c>
       <c r="B35" s="9">
-        <v>121.63500000000001</v>
+        <v>38.31</v>
       </c>
       <c r="C35" s="9">
-        <v>121.66500000000001</v>
+        <v>38.315049999999999</v>
       </c>
       <c r="D35" s="9">
-        <v>121.52500000000001</v>
+        <v>38.004950000000001</v>
       </c>
       <c r="E35" s="9">
-        <v>121.605</v>
+        <v>38.024999999999999</v>
       </c>
       <c r="F35" s="9">
         <v>33</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
-        <v>-2.4663953631768107E-4</v>
+        <v>-7.4393108848865488E-3</v>
       </c>
       <c r="H35" s="27">
         <f t="shared" si="3"/>
-        <v>0.60024663953637458</v>
+        <v>19.007439310884411</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>2.4663953631768107E-4</v>
+        <v>1.3181936831107053E-4</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T35">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A36" s="25">
         <v>0.47222222222222227</v>
       </c>
       <c r="B36" s="9">
-        <v>121.605</v>
+        <v>38.024999999999999</v>
       </c>
       <c r="C36" s="9">
-        <v>121.66500000000001</v>
+        <v>38.325049999999997</v>
       </c>
       <c r="D36" s="9">
-        <v>121.52500000000001</v>
+        <v>37.965000000000003</v>
       </c>
       <c r="E36" s="9">
-        <v>121.52500000000001</v>
+        <v>38.225000000000001</v>
       </c>
       <c r="F36" s="9">
         <v>34</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>-6.5786768636156645E-4</v>
+        <v>5.2596975673899499E-3</v>
       </c>
       <c r="H36" s="27">
         <f t="shared" si="3"/>
-        <v>2.6673245343528702</v>
+        <v>0.70701408353230311</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>4.9340076477120411E-4</v>
+        <v>7.8908612754766301E-3</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="0"/>
@@ -3888,147 +3889,147 @@
         <v>0</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A37" s="25">
         <v>0.47569444444444442</v>
       </c>
       <c r="B37" s="9">
-        <v>121.52500000000001</v>
+        <v>38.225000000000001</v>
       </c>
       <c r="C37" s="9">
-        <v>121.595</v>
+        <v>38.225000000000001</v>
       </c>
       <c r="D37" s="9">
-        <v>121.325</v>
+        <v>38.004950000000001</v>
       </c>
       <c r="E37" s="9">
-        <v>121.575</v>
+        <v>38.204999999999998</v>
       </c>
       <c r="F37" s="9">
         <v>35</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>4.1143797572513601E-4</v>
+        <v>-5.2321778940492151E-4</v>
       </c>
       <c r="H37" s="27">
         <f t="shared" si="3"/>
-        <v>0.62541143797570298</v>
+        <v>9.947678221060928E-2</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>5.76013166015167E-4</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A38" s="25">
         <v>0.47916666666666669</v>
       </c>
       <c r="B38" s="9">
-        <v>121.575</v>
+        <v>38.204999999999998</v>
       </c>
       <c r="C38" s="9">
-        <v>121.595</v>
+        <v>38.22</v>
       </c>
       <c r="D38" s="9">
-        <v>121.30500000000001</v>
+        <v>37.854999999999997</v>
       </c>
       <c r="E38" s="9">
-        <v>121.325</v>
+        <v>37.924999999999997</v>
       </c>
       <c r="F38" s="9">
         <v>36</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>-2.0563438206868188E-3</v>
+        <v>-7.3288836539720237E-3</v>
       </c>
       <c r="H38" s="27">
         <f t="shared" si="3"/>
-        <v>4.997943656179598</v>
+        <v>14.007328883651843</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>1.6450750565491279E-4</v>
+        <v>3.9261876717708598E-4</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L38" s="1">
@@ -4040,71 +4041,71 @@
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T38">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A39" s="25">
         <v>0.4826388888888889</v>
       </c>
       <c r="B39" s="9">
-        <v>121.325</v>
+        <v>37.924999999999997</v>
       </c>
       <c r="C39" s="9">
-        <v>121.44499999999999</v>
+        <v>38.094999999999999</v>
       </c>
       <c r="D39" s="9">
-        <v>121.30500000000001</v>
+        <v>37.865000000000002</v>
       </c>
       <c r="E39" s="9">
-        <v>121.30500000000001</v>
+        <v>37.905000000000001</v>
       </c>
       <c r="F39" s="9">
         <v>37</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
-        <v>-1.6484648670921922E-4</v>
+        <v>-5.2735662491749566E-4</v>
       </c>
       <c r="H39" s="27">
         <f t="shared" si="3"/>
-        <v>8.0164846486693309E-2</v>
+        <v>7.1955928053474422E-2</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>9.8907892025543241E-4</v>
+        <v>4.48253131179965E-3</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L39" s="1">
@@ -4116,72 +4117,72 @@
         <v>0</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A40" s="25">
         <v>0.4861111111111111</v>
       </c>
       <c r="B40" s="9">
-        <v>121.30500000000001</v>
+        <v>37.905000000000001</v>
       </c>
       <c r="C40" s="9">
-        <v>121.435</v>
+        <v>37.924999999999997</v>
       </c>
       <c r="D40" s="9">
-        <v>121.285</v>
+        <v>37.734999999999999</v>
       </c>
       <c r="E40" s="9">
-        <v>121.405</v>
+        <v>37.774999999999999</v>
       </c>
       <c r="F40" s="9">
         <v>38</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>8.2436832776880018E-4</v>
+        <v>-3.4296266983248266E-3</v>
       </c>
       <c r="H40" s="27">
         <f t="shared" si="3"/>
-        <v>5.0008243683284785</v>
+        <v>6.503429626699746</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>1.0716788260994637E-3</v>
+        <v>5.2763487666524259E-4</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="0"/>
@@ -4192,71 +4193,71 @@
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A41" s="25">
         <v>0.48958333333333331</v>
       </c>
       <c r="B41" s="9">
-        <v>121.405</v>
+        <v>37.774999999999999</v>
       </c>
       <c r="C41" s="9">
-        <v>121.405</v>
+        <v>37.774999999999999</v>
       </c>
       <c r="D41" s="9">
-        <v>121.19499999999999</v>
+        <v>37.534999999999997</v>
       </c>
       <c r="E41" s="9">
-        <v>121.245</v>
+        <v>37.604999999999997</v>
       </c>
       <c r="F41" s="9">
         <v>39</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
-        <v>-1.3179028870309837E-3</v>
+        <v>-4.5003309066843607E-3</v>
       </c>
       <c r="H41" s="27">
         <f t="shared" si="3"/>
-        <v>1.5986820971130258</v>
+        <v>1.3121926385989795</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L41" s="1">
@@ -4268,71 +4269,71 @@
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A42" s="25">
         <v>0.49305555555555558</v>
       </c>
       <c r="B42" s="9">
-        <v>121.245</v>
+        <v>37.604999999999997</v>
       </c>
       <c r="C42" s="9">
-        <v>121.265</v>
+        <v>37.674999999999997</v>
       </c>
       <c r="D42" s="9">
-        <v>121.145</v>
+        <v>37.445</v>
       </c>
       <c r="E42" s="9">
-        <v>121.155</v>
+        <v>37.555</v>
       </c>
       <c r="F42" s="9">
         <v>40</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>-7.4229865149081124E-4</v>
+        <v>-1.3296104241456498E-3</v>
       </c>
       <c r="H42" s="27">
         <f t="shared" si="3"/>
-        <v>0.5632422986515242</v>
+        <v>0.29544725748294948</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>1.6495525588680786E-4</v>
+        <v>1.8614545938040231E-3</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L42" s="1">
@@ -4344,71 +4345,71 @@
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A43" s="25">
         <v>0.49652777777777773</v>
       </c>
       <c r="B43" s="9">
-        <v>121.155</v>
+        <v>37.555</v>
       </c>
       <c r="C43" s="9">
-        <v>121.19499999999999</v>
+        <v>37.695</v>
       </c>
       <c r="D43" s="9">
-        <v>121.11499999999999</v>
+        <v>37.484999999999999</v>
       </c>
       <c r="E43" s="9">
-        <v>121.125</v>
+        <v>37.555</v>
       </c>
       <c r="F43" s="9">
         <v>41</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>-2.4761668936487257E-4</v>
+        <v>0</v>
       </c>
       <c r="H43" s="27">
         <f t="shared" si="3"/>
-        <v>0.33358095002269822</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>3.3015558581975192E-4</v>
+        <v>3.7278657968313291E-3</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L43" s="1">
@@ -4420,71 +4421,71 @@
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A44" s="25">
         <v>0.5</v>
       </c>
       <c r="B44" s="9">
-        <v>121.125</v>
+        <v>37.555</v>
       </c>
       <c r="C44" s="9">
-        <v>121.13500000000001</v>
+        <v>37.615000000000002</v>
       </c>
       <c r="D44" s="9">
-        <v>120.91500000000001</v>
+        <v>37.284999999999997</v>
       </c>
       <c r="E44" s="9">
-        <v>121.09</v>
+        <v>37.435000000000002</v>
       </c>
       <c r="F44" s="9">
         <v>42</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>-2.8895768833846512E-4</v>
+        <v>-3.1953135401410582E-3</v>
       </c>
       <c r="H44" s="27">
         <f t="shared" si="3"/>
-        <v>1.1669556243548471</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>8.2559339525326033E-5</v>
+        <v>1.5976567700706238E-3</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L44" s="1">
@@ -4496,72 +4497,72 @@
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A45" s="25">
         <v>0.50347222222222221</v>
       </c>
       <c r="B45" s="9">
-        <v>121.09</v>
+        <v>37.435000000000002</v>
       </c>
       <c r="C45" s="9">
-        <v>121.105</v>
+        <v>37.485050000000001</v>
       </c>
       <c r="D45" s="9">
-        <v>120.855</v>
+        <v>37.274999999999999</v>
       </c>
       <c r="E45" s="9">
-        <v>120.905</v>
+        <v>37.484999999999999</v>
       </c>
       <c r="F45" s="9">
         <v>43</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>-1.5277892476670432E-3</v>
+        <v>1.3356484573259558E-3</v>
       </c>
       <c r="H45" s="27">
         <f t="shared" si="3"/>
-        <v>5.2872420749625331</v>
+        <v>0.41800231512397784</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>1.2387480386489858E-4</v>
+        <v>1.3369841057833262E-3</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="0"/>
@@ -4572,71 +4573,71 @@
         <v>0</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A46" s="25">
         <v>0.50694444444444442</v>
       </c>
       <c r="B46" s="9">
-        <v>120.905</v>
+        <v>37.484999999999999</v>
       </c>
       <c r="C46" s="9">
-        <v>120.97499999999999</v>
+        <v>37.495049999999999</v>
       </c>
       <c r="D46" s="9">
-        <v>120.72499999999999</v>
+        <v>37.085000000000001</v>
       </c>
       <c r="E46" s="9">
-        <v>120.72499999999999</v>
+        <v>37.094999999999999</v>
       </c>
       <c r="F46" s="9">
         <v>44</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>-1.4887721765022689E-3</v>
+        <v>-1.0404161664665882E-2</v>
       </c>
       <c r="H46" s="27">
         <f t="shared" si="3"/>
-        <v>0.97446174514950024</v>
+        <v>7.7895958383357886</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>5.789669575285818E-4</v>
+        <v>2.6810724289715005E-4</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L46" s="1">
@@ -4648,71 +4649,71 @@
         <v>0</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A47" s="25">
         <v>0.51041666666666663</v>
       </c>
       <c r="B47" s="9">
-        <v>120.72499999999999</v>
+        <v>37.094999999999999</v>
       </c>
       <c r="C47" s="9">
-        <v>121.015</v>
+        <v>37.335050000000003</v>
       </c>
       <c r="D47" s="9">
-        <v>120.655</v>
+        <v>37.064999999999998</v>
       </c>
       <c r="E47" s="9">
-        <v>121.015</v>
+        <v>37.325000000000003</v>
       </c>
       <c r="F47" s="9">
         <v>45</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>2.4021536550010874E-3</v>
+        <v>6.2002965359213907E-3</v>
       </c>
       <c r="H47" s="27">
         <f t="shared" si="3"/>
-        <v>1.6135132647660859</v>
+        <v>0.59594388627952044</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>2.4021536550010874E-3</v>
+        <v>6.4712225367301165E-3</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L47" s="1">
@@ -4724,71 +4725,71 @@
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A48" s="25">
         <v>0.51388888888888895</v>
       </c>
       <c r="B48" s="9">
-        <v>121.015</v>
+        <v>37.325000000000003</v>
       </c>
       <c r="C48" s="9">
-        <v>121.125</v>
+        <v>37.585050000000003</v>
       </c>
       <c r="D48" s="9">
-        <v>120.955</v>
+        <v>37.284999999999997</v>
       </c>
       <c r="E48" s="9">
-        <v>121.125</v>
+        <v>37.585000000000001</v>
       </c>
       <c r="F48" s="9">
         <v>46</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>9.089782258397672E-4</v>
+        <v>6.9658405894172269E-3</v>
       </c>
       <c r="H48" s="27">
         <f t="shared" si="3"/>
-        <v>0.37840136660173629</v>
+        <v>1.1234689420192503</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>9.089782258397672E-4</v>
+        <v>6.9671801741460057E-3</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L48" s="1">
@@ -4800,148 +4801,148 @@
         <v>1</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="R48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A49" s="25">
         <v>0.51736111111111105</v>
       </c>
       <c r="B49" s="9">
-        <v>121.125</v>
+        <v>37.585000000000001</v>
       </c>
       <c r="C49" s="9">
-        <v>121.16500000000001</v>
+        <v>37.634999999999998</v>
       </c>
       <c r="D49" s="9">
-        <v>121.08499999999999</v>
+        <v>37.475000000000001</v>
       </c>
       <c r="E49" s="9">
-        <v>121.13500000000001</v>
+        <v>37.545000000000002</v>
       </c>
       <c r="F49" s="9">
         <v>47</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>8.2559339525326033E-5</v>
+        <v>-1.0642543567912503E-3</v>
       </c>
       <c r="H49" s="27">
         <f t="shared" si="3"/>
-        <v>9.0826531569612567E-2</v>
+        <v>0.1527818994893605</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>3.3023735810118682E-4</v>
+        <v>1.3303179459890158E-3</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A50" s="25">
         <v>0.52083333333333337</v>
       </c>
       <c r="B50" s="9">
-        <v>121.13500000000001</v>
+        <v>37.545000000000002</v>
       </c>
       <c r="C50" s="9">
-        <v>121.205</v>
+        <v>37.924999999999997</v>
       </c>
       <c r="D50" s="9">
-        <v>121.035</v>
+        <v>37.524999999999999</v>
       </c>
       <c r="E50" s="9">
-        <v>121.045</v>
+        <v>37.685000000000002</v>
       </c>
       <c r="F50" s="9">
         <v>48</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>-7.429727163908318E-4</v>
+        <v>3.7288587028898807E-3</v>
       </c>
       <c r="H50" s="27">
         <f t="shared" si="3"/>
-        <v>8.9992570272793468</v>
+        <v>3.5037288587029791</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>5.7786766830390205E-4</v>
+        <v>1.0121187907843799E-2</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="0"/>
@@ -4952,71 +4953,71 @@
         <v>1</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T50">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A51" s="25">
         <v>0.52430555555555558</v>
       </c>
       <c r="B51" s="9">
-        <v>121.045</v>
+        <v>37.685000000000002</v>
       </c>
       <c r="C51" s="9">
-        <v>121.245</v>
+        <v>37.865000000000002</v>
       </c>
       <c r="D51" s="9">
-        <v>121.015</v>
+        <v>37.615000000000002</v>
       </c>
       <c r="E51" s="9">
-        <v>121.205</v>
+        <v>37.734999999999999</v>
       </c>
       <c r="F51" s="9">
         <v>49</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>1.3218224627204477E-3</v>
+        <v>1.3267878466232494E-3</v>
       </c>
       <c r="H51" s="27">
         <f t="shared" si="3"/>
-        <v>1.7790996002403929</v>
+        <v>0.35581606929621212</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>1.6522780784006183E-3</v>
+        <v>4.7764362478439617E-3</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L51" s="1">
@@ -5025,74 +5026,74 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="R51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T51">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A52" s="25">
         <v>0.52777777777777779</v>
       </c>
       <c r="B52" s="9">
-        <v>121.205</v>
+        <v>37.734999999999999</v>
       </c>
       <c r="C52" s="9">
-        <v>121.235</v>
+        <v>37.735050000000001</v>
       </c>
       <c r="D52" s="9">
-        <v>120.91500000000001</v>
+        <v>37.335000000000001</v>
       </c>
       <c r="E52" s="9">
-        <v>120.935</v>
+        <v>37.335000000000001</v>
       </c>
       <c r="F52" s="9">
         <v>50</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>-2.2276308733137746E-3</v>
+        <v>-1.0600238505366334E-2</v>
       </c>
       <c r="H52" s="27">
         <f t="shared" si="3"/>
-        <v>1.6852723691266973</v>
+        <v>7.9893997614950605</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>2.4751454147932129E-4</v>
+        <v>1.3250298132147828E-6</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L52" s="1">
@@ -5104,71 +5105,71 @@
         <v>0</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T52">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A53" s="25">
         <v>0.53125</v>
       </c>
       <c r="B53" s="9">
-        <v>120.935</v>
+        <v>37.335000000000001</v>
       </c>
       <c r="C53" s="9">
-        <v>121.27500000000001</v>
+        <v>37.615000000000002</v>
       </c>
       <c r="D53" s="9">
-        <v>120.91500000000001</v>
+        <v>37.335000000000001</v>
       </c>
       <c r="E53" s="9">
-        <v>121.265</v>
+        <v>37.575000000000003</v>
       </c>
       <c r="F53" s="9">
         <v>51</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>2.7287385785752538E-3</v>
+        <v>6.4282844515870362E-3</v>
       </c>
       <c r="H53" s="27">
         <f t="shared" si="3"/>
-        <v>1.2249509608008091</v>
+        <v>0.60642828445159414</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>2.8114276264109101E-3</v>
+        <v>7.4996651935181772E-3</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L53" s="1">
@@ -5177,75 +5178,75 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A54" s="25">
         <v>0.53472222222222221</v>
       </c>
       <c r="B54" s="9">
-        <v>121.265</v>
+        <v>37.575000000000003</v>
       </c>
       <c r="C54" s="9">
-        <v>121.485</v>
+        <v>37.765000000000001</v>
       </c>
       <c r="D54" s="9">
-        <v>121.265</v>
+        <v>37.555</v>
       </c>
       <c r="E54" s="9">
-        <v>121.38500000000001</v>
+        <v>37.585000000000001</v>
       </c>
       <c r="F54" s="9">
         <v>52</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>9.8956830082880102E-4</v>
+        <v>2.6613439787087184E-4</v>
       </c>
       <c r="H54" s="27">
         <f t="shared" si="3"/>
-        <v>0.3626467953355505</v>
+        <v>4.1400532268787156E-2</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>1.8142085515193904E-3</v>
+        <v>5.0565535595475108E-3</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="0"/>
@@ -5256,72 +5257,72 @@
         <v>1</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="R54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T54">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A55" s="25">
         <v>0.53819444444444442</v>
       </c>
       <c r="B55" s="9">
-        <v>121.38500000000001</v>
+        <v>37.585000000000001</v>
       </c>
       <c r="C55" s="9">
-        <v>121.485</v>
+        <v>37.725000000000001</v>
       </c>
       <c r="D55" s="9">
-        <v>121.375</v>
+        <v>37.504950000000001</v>
       </c>
       <c r="E55" s="9">
-        <v>121.435</v>
+        <v>37.674999999999997</v>
       </c>
       <c r="F55" s="9">
         <v>53</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>4.1191250978289868E-4</v>
+        <v>2.3945723027802663E-3</v>
       </c>
       <c r="H55" s="27">
         <f t="shared" si="3"/>
-        <v>0.41625475415684426</v>
+        <v>8.997605427698641</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>8.2382501956579737E-4</v>
+        <v>3.724890248769471E-3</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="0"/>
@@ -5332,71 +5333,71 @@
         <v>0</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="R55">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="S55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A56" s="25">
         <v>0.54166666666666663</v>
       </c>
       <c r="B56" s="9">
-        <v>121.435</v>
+        <v>37.674999999999997</v>
       </c>
       <c r="C56" s="9">
-        <v>121.455</v>
+        <v>37.695</v>
       </c>
       <c r="D56" s="9">
-        <v>121.27500000000001</v>
+        <v>37.454999999999998</v>
       </c>
       <c r="E56" s="9">
-        <v>121.355</v>
+        <v>37.494999999999997</v>
       </c>
       <c r="F56" s="9">
         <v>54</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>-6.5878865236544898E-4</v>
+        <v>-4.777704047777033E-3</v>
       </c>
       <c r="H56" s="27">
         <f t="shared" si="3"/>
-        <v>1.5993412113476915</v>
+        <v>1.9952222959523016</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>1.6469716309133297E-4</v>
+        <v>5.3085600530864308E-4</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L56" s="1">
@@ -5408,71 +5409,71 @@
         <v>0</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A57" s="25">
         <v>0.54513888888888895</v>
       </c>
       <c r="B57" s="9">
-        <v>121.355</v>
+        <v>37.494999999999997</v>
       </c>
       <c r="C57" s="9">
-        <v>121.515</v>
+        <v>37.634999999999998</v>
       </c>
       <c r="D57" s="9">
-        <v>121.315</v>
+        <v>37.434950000000001</v>
       </c>
       <c r="E57" s="9">
-        <v>121.455</v>
+        <v>37.585000000000001</v>
       </c>
       <c r="F57" s="9">
         <v>55</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>8.2402867619788477E-4</v>
+        <v>2.4003200426724472E-3</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="3"/>
-        <v>1.2508240286761534</v>
+        <v>0.50240032004269219</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>1.3184458819166626E-3</v>
+        <v>3.7338311774903475E-3</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L57" s="1">
@@ -5481,150 +5482,150 @@
       </c>
       <c r="M57" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T57">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A58" s="25">
         <v>0.54861111111111105</v>
       </c>
       <c r="B58" s="9">
-        <v>121.455</v>
+        <v>37.585000000000001</v>
       </c>
       <c r="C58" s="9">
-        <v>121.505</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="D58" s="9">
-        <v>121.33499999999999</v>
+        <v>37.375</v>
       </c>
       <c r="E58" s="9">
-        <v>121.36499999999999</v>
+        <v>37.384999999999998</v>
       </c>
       <c r="F58" s="9">
         <v>56</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>-7.4101519081143971E-4</v>
+        <v>-5.3212717839564412E-3</v>
       </c>
       <c r="H58" s="27">
         <f t="shared" si="3"/>
-        <v>0.89925898480927391</v>
+        <v>2.2169009504382133</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>4.1167510600631643E-4</v>
+        <v>9.312225621922732E-4</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A59" s="25">
         <v>0.55208333333333337</v>
       </c>
       <c r="B59" s="9">
-        <v>121.36499999999999</v>
+        <v>37.384999999999998</v>
       </c>
       <c r="C59" s="9">
-        <v>121.515</v>
+        <v>37.445</v>
       </c>
       <c r="D59" s="9">
-        <v>121.345</v>
+        <v>37.274999999999999</v>
       </c>
       <c r="E59" s="9">
-        <v>121.435</v>
+        <v>37.344999999999999</v>
       </c>
       <c r="F59" s="9">
         <v>57</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>5.7677254562688907E-4</v>
+        <v>-1.0699478400427753E-3</v>
       </c>
       <c r="H59" s="27">
         <f t="shared" si="3"/>
-        <v>0.77835455032345735</v>
+        <v>0.20106994784003568</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>1.235941169200393E-3</v>
+        <v>1.6049217600642579E-3</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L59" s="1">
@@ -5636,72 +5637,72 @@
         <v>0</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T59">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A60" s="25">
         <v>0.55555555555555558</v>
       </c>
       <c r="B60" s="9">
-        <v>121.435</v>
+        <v>37.344999999999999</v>
       </c>
       <c r="C60" s="9">
-        <v>121.545</v>
+        <v>37.515000000000001</v>
       </c>
       <c r="D60" s="9">
-        <v>121.36499999999999</v>
+        <v>37.325000000000003</v>
       </c>
       <c r="E60" s="9">
-        <v>121.36499999999999</v>
+        <v>37.375</v>
       </c>
       <c r="F60" s="9">
         <v>58</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>-5.7644007081984099E-4</v>
+        <v>8.0332039094928743E-4</v>
       </c>
       <c r="H60" s="27">
         <f t="shared" si="3"/>
-        <v>0.99942355992918019</v>
+        <v>0.75080332039099362</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>9.0583439700250693E-4</v>
+        <v>4.5521488820458355E-3</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="0"/>
@@ -5709,74 +5710,74 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T60">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A61" s="25">
         <v>0.55902777777777779</v>
       </c>
       <c r="B61" s="9">
-        <v>121.36499999999999</v>
+        <v>37.375</v>
       </c>
       <c r="C61" s="9">
-        <v>121.38500000000001</v>
+        <v>37.40005</v>
       </c>
       <c r="D61" s="9">
-        <v>121.065</v>
+        <v>37.134999999999998</v>
       </c>
       <c r="E61" s="9">
-        <v>121.095</v>
+        <v>37.145000000000003</v>
       </c>
       <c r="F61" s="9">
         <v>59</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
-        <v>-2.2246941045605904E-3</v>
+        <v>-6.1538461538460706E-3</v>
       </c>
       <c r="H61" s="27">
         <f t="shared" si="3"/>
-        <v>3.8593675512469536</v>
+        <v>7.6605128205124258</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>1.6479215589346378E-4</v>
+        <v>6.70234113712381E-4</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L61" s="1">
@@ -5788,72 +5789,72 @@
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T61">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A62" s="25">
         <v>0.5625</v>
       </c>
       <c r="B62" s="9">
-        <v>121.095</v>
+        <v>37.145000000000003</v>
       </c>
       <c r="C62" s="9">
-        <v>121.095</v>
+        <v>37.245049999999999</v>
       </c>
       <c r="D62" s="9">
-        <v>120.985</v>
+        <v>37.014949999999999</v>
       </c>
       <c r="E62" s="9">
-        <v>121.045</v>
+        <v>37.185000000000002</v>
       </c>
       <c r="F62" s="9">
         <v>60</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>-4.1289896362357783E-4</v>
+        <v>1.0768609503297656E-3</v>
       </c>
       <c r="H62" s="27">
         <f t="shared" si="3"/>
-        <v>0.18559808414880094</v>
+        <v>0.17498990442858928</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.6934984520122752E-3</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="0"/>
@@ -5864,71 +5865,71 @@
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T62">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A63" s="25">
         <v>0.56597222222222221</v>
       </c>
       <c r="B63" s="9">
-        <v>121.045</v>
+        <v>37.185000000000002</v>
       </c>
       <c r="C63" s="9">
-        <v>121.205</v>
+        <v>37.235050000000001</v>
       </c>
       <c r="D63" s="9">
-        <v>120.995</v>
+        <v>37.085000000000001</v>
       </c>
       <c r="E63" s="9">
-        <v>121.065</v>
+        <v>37.104999999999997</v>
       </c>
       <c r="F63" s="9">
         <v>61</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
-        <v>1.6522780784002661E-4</v>
+        <v>-2.1514051364799084E-3</v>
       </c>
       <c r="H63" s="27">
         <f t="shared" si="3"/>
-        <v>0.40016522780778319</v>
+        <v>1.9978485948636977</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>1.3218224627204477E-3</v>
+        <v>1.34597283851012E-3</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L63" s="1">
@@ -5940,71 +5941,71 @@
         <v>0</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T63">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A64" s="25">
         <v>0.56944444444444442</v>
       </c>
       <c r="B64" s="9">
-        <v>121.065</v>
+        <v>37.104999999999997</v>
       </c>
       <c r="C64" s="9">
-        <v>121.065</v>
+        <v>37.104999999999997</v>
       </c>
       <c r="D64" s="9">
-        <v>121.065</v>
+        <v>36.914949999999997</v>
       </c>
       <c r="E64" s="9">
-        <v>121.065</v>
+        <v>37.024999999999999</v>
       </c>
       <c r="F64" s="9">
         <v>62</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2.1560436598840669E-3</v>
       </c>
       <c r="H64" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0021560436597954</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L64" s="1">
@@ -6016,62 +6017,72 @@
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T64">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A65" s="25">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="B65" s="9">
+        <v>37.024999999999999</v>
+      </c>
+      <c r="C65" s="9">
+        <v>37.305</v>
+      </c>
+      <c r="D65" s="9">
+        <v>36.975000000000001</v>
+      </c>
+      <c r="E65" s="9">
+        <v>37.244999999999997</v>
+      </c>
       <c r="F65" s="9">
         <v>63</v>
       </c>
-      <c r="G65" s="7" t="e">
+      <c r="G65" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.9419311276164444E-3</v>
       </c>
       <c r="H65" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="7" t="e">
+        <v>2.7559419311276607</v>
+      </c>
+      <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.5624577987846364E-3</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="0"/>
@@ -6079,959 +6090,1099 @@
       </c>
       <c r="M65" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O65" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R65" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S65" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T65" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A66" s="25">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="B66" s="9">
+        <v>37.244999999999997</v>
+      </c>
+      <c r="C66" s="9">
+        <v>37.265000000000001</v>
+      </c>
+      <c r="D66" s="9">
+        <v>37.004950000000001</v>
+      </c>
+      <c r="E66" s="9">
+        <v>37.005000000000003</v>
+      </c>
       <c r="F66" s="9">
         <v>64</v>
       </c>
-      <c r="G66" s="7" t="e">
+      <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-6.4438179621424327E-3</v>
       </c>
       <c r="H66" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="7" t="e">
+        <v>1.0844652729469311</v>
+      </c>
+      <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.3698483017863147E-4</v>
       </c>
       <c r="J66" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" ref="L66:L79" si="17">+IFERROR(IF(AND(OR(K65=1,M65=1),(ABS(G66)/ABS(G65))&lt;0.9,G66&lt;0),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" ref="M66:M79" si="18">+IF(J66=1,1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K66" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L66" s="1">
-        <f t="shared" ref="L66:L79" si="20">+IFERROR(IF(AND(OR(K65=1,M65=1),(ABS(G66)/ABS(G65))&lt;0.9,G66&lt;0),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="1">
-        <f t="shared" ref="M66:M79" si="21">+IF(J66=1,1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O66" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+      <c r="O66">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R66" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S66" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T66" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A67" s="25">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="B67" s="9">
+        <v>37.005000000000003</v>
+      </c>
+      <c r="C67" s="9">
+        <v>37.145000000000003</v>
+      </c>
+      <c r="D67" s="9">
+        <v>36.954999999999998</v>
+      </c>
+      <c r="E67" s="9">
+        <v>37.005000000000003</v>
+      </c>
       <c r="F67" s="9">
         <v>65</v>
       </c>
-      <c r="G67" s="7" t="e">
-        <f t="shared" ref="G67:G79" si="22">+(E67-B67)/B67</f>
-        <v>#DIV/0!</v>
+      <c r="G67" s="7">
+        <f t="shared" ref="G67:G79" si="19">+(E67-B67)/B67</f>
+        <v>0</v>
       </c>
       <c r="H67" s="27">
-        <f t="shared" ref="H67:H79" si="23">+IFERROR(ABS(G67)/ABS(G66),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="7" t="e">
-        <f t="shared" ref="I67:I79" si="24">+(C67-B67)/B67</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="H67:H79" si="20">+IFERROR(ABS(G67)/ABS(G66),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" ref="I67:I79" si="21">+(C67-B67)/B67</f>
+        <v>3.7832725307391044E-3</v>
       </c>
       <c r="J67" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" ref="K67:K79" si="22">+IF(G67&gt;0.0008,1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K67" s="1" t="e">
-        <f t="shared" ref="K67:K79" si="25">+IF(G67&gt;0.0008,1, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L67" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="1" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O67" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+      <c r="O67">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R67" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S67" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R67">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T67" t="e">
-        <f t="shared" ref="T67:T79" si="26">+SUM(Q67:S67)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T79" si="23">+SUM(Q67:S67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A68" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B68" s="9">
+        <v>37.005000000000003</v>
+      </c>
+      <c r="C68" s="9">
+        <v>37.134999999999998</v>
+      </c>
+      <c r="D68" s="9">
+        <v>36.975000000000001</v>
+      </c>
+      <c r="E68" s="9">
+        <v>37.015000000000001</v>
+      </c>
       <c r="F68" s="9">
         <v>66</v>
       </c>
-      <c r="G68" s="7" t="e">
+      <c r="G68" s="7">
+        <f t="shared" si="19"/>
+        <v>2.7023375219559546E-4</v>
+      </c>
+      <c r="H68" s="27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="21"/>
+        <v>3.5130387785433171E-3</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="27">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T68">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I68" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J68" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="1" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O68" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P68" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q68" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R68" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S68" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T68" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+    </row>
+    <row r="69" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A69" s="25">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="B69" s="9">
+        <v>37.015000000000001</v>
+      </c>
+      <c r="C69" s="9">
+        <v>37.164999999999999</v>
+      </c>
+      <c r="D69" s="9">
+        <v>37.014949999999999</v>
+      </c>
+      <c r="E69" s="9">
+        <v>37.134999999999998</v>
+      </c>
       <c r="F69" s="9">
         <v>67</v>
       </c>
-      <c r="G69" s="7" t="e">
+      <c r="G69" s="7">
+        <f t="shared" si="19"/>
+        <v>3.2419289477238268E-3</v>
+      </c>
+      <c r="H69" s="27">
+        <f t="shared" si="20"/>
+        <v>11.996758071054408</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" si="21"/>
+        <v>4.052411184654831E-3</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="27">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="shared" ref="S69:S79" si="24">+IF(AND(R69=1,K69=1,G66&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T69">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J69" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L69" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="1" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O69" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P69" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R69" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S69" t="e">
-        <f t="shared" ref="S69:S79" si="27">+IF(AND(R69=1,K69=1,G66&gt;0),1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T69" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A70" s="25">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="B70" s="9">
+        <v>37.134999999999998</v>
+      </c>
+      <c r="C70" s="9">
+        <v>37.225000000000001</v>
+      </c>
+      <c r="D70" s="9">
+        <v>37.024999999999999</v>
+      </c>
+      <c r="E70" s="9">
+        <v>37.104999999999997</v>
+      </c>
       <c r="F70" s="9">
         <v>68</v>
       </c>
-      <c r="G70" s="7" t="e">
+      <c r="G70" s="7">
+        <f t="shared" si="19"/>
+        <v>-8.0786320183118721E-4</v>
+      </c>
+      <c r="H70" s="27">
+        <f t="shared" si="20"/>
+        <v>0.24919213679818358</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="21"/>
+        <v>2.4235896054935618E-3</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" ref="J70:J79" si="25">+IF(AND(C70&gt;C69,C70&gt;C68),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" s="27">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P70" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T70">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I70" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J70" s="1">
-        <f t="shared" ref="J70:J79" si="28">+IF(AND(C70&gt;C69,C70&gt;C68),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L70" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="1" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O70" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P70" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R70" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S70" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T70" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+    </row>
+    <row r="71" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A71" s="25">
+        <v>0.59375</v>
+      </c>
+      <c r="B71" s="9">
+        <v>37.104999999999997</v>
+      </c>
+      <c r="C71" s="9">
+        <v>37.274999999999999</v>
+      </c>
+      <c r="D71" s="9">
+        <v>37.055</v>
+      </c>
+      <c r="E71" s="9">
+        <v>37.225000000000001</v>
+      </c>
       <c r="F71" s="9">
         <v>69</v>
       </c>
-      <c r="G71" s="7" t="e">
+      <c r="G71" s="7">
+        <f t="shared" si="19"/>
+        <v>3.2340654898262919E-3</v>
+      </c>
+      <c r="H71" s="27">
+        <f t="shared" si="20"/>
+        <v>4.0032340654898269</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="21"/>
+        <v>4.5815927772537854E-3</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="27">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ref="Q71:Q79" si="26">+IF(AND(K71=1,G70&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="shared" ref="R71:R79" si="27">+IF(AND(Q71=1,K71=1,G69&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T71">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I71" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J71" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L71" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="1" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O71" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P71" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" t="e">
-        <f t="shared" ref="Q71:Q79" si="29">+IF(AND(K71=1,G70&gt;0),1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R71" t="e">
-        <f t="shared" ref="R71:R79" si="30">+IF(AND(Q71=1,K71=1,G69&gt;0),1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S71" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T71" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+    </row>
+    <row r="72" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A72" s="25">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="B72" s="9">
+        <v>37.225000000000001</v>
+      </c>
+      <c r="C72" s="9">
+        <v>37.235050000000001</v>
+      </c>
+      <c r="D72" s="9">
+        <v>37.004950000000001</v>
+      </c>
+      <c r="E72" s="9">
+        <v>37.005000000000003</v>
+      </c>
       <c r="F72" s="9">
         <v>70</v>
       </c>
-      <c r="G72" s="7" t="e">
+      <c r="G72" s="7">
+        <f t="shared" si="19"/>
+        <v>-5.910006715916692E-3</v>
+      </c>
+      <c r="H72" s="27">
+        <f t="shared" si="20"/>
+        <v>1.8274233266173376</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="21"/>
+        <v>2.6997985224982323E-4</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="27">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T72">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I72" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J72" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L72" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N72" s="1" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O72" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P72" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q72" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R72" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S72" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T72" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+    </row>
+    <row r="73" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A73" s="25">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="B73" s="9">
+        <v>37.005000000000003</v>
+      </c>
+      <c r="C73" s="9">
+        <v>37.024999999999999</v>
+      </c>
+      <c r="D73" s="9">
+        <v>36.884999999999998</v>
+      </c>
+      <c r="E73" s="9">
+        <v>36.884999999999998</v>
+      </c>
       <c r="F73" s="9">
         <v>71</v>
       </c>
-      <c r="G73" s="7" t="e">
+      <c r="G73" s="7">
+        <f t="shared" si="19"/>
+        <v>-3.2428050263479135E-3</v>
+      </c>
+      <c r="H73" s="27">
+        <f t="shared" si="20"/>
+        <v>0.54869735048091683</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="21"/>
+        <v>5.4046750439119091E-4</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H73" s="27">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T73">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I73" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J73" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L73" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="1" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O73" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P73" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R73" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S73" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T73" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+    </row>
+    <row r="74" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A74" s="25">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B74" s="9">
+        <v>36.884999999999998</v>
+      </c>
+      <c r="C74" s="9">
+        <v>37.015000000000001</v>
+      </c>
+      <c r="D74" s="9">
+        <v>36.774999999999999</v>
+      </c>
+      <c r="E74" s="9">
+        <v>36.865000000000002</v>
+      </c>
       <c r="F74" s="9">
         <v>72</v>
       </c>
-      <c r="G74" s="7" t="e">
+      <c r="G74" s="7">
+        <f t="shared" si="19"/>
+        <v>-5.4222583706102815E-4</v>
+      </c>
+      <c r="H74" s="27">
+        <f t="shared" si="20"/>
+        <v>0.16720889250368823</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="21"/>
+        <v>3.5244679408974531E-3</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H74" s="27">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" ref="N74:N79" si="28">+IF(AND(M74=1,L73=1,K72=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" ref="O74:O79" si="29">+IF(OR(N75=1,N76=1,N74=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T74">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I74" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J74" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L74" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="1" t="e">
-        <f t="shared" ref="N74:N79" si="31">+IF(AND(M74=1,L73=1,K72=1),1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O74" t="e">
-        <f t="shared" ref="O74:O79" si="32">+IF(OR(N75=1,N76=1,N74=1),1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P74" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R74" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S74" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T74" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+    </row>
+    <row r="75" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A75" s="25">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="B75" s="9">
+        <v>36.865000000000002</v>
+      </c>
+      <c r="C75" s="9">
+        <v>36.895000000000003</v>
+      </c>
+      <c r="D75" s="9">
+        <v>36.725000000000001</v>
+      </c>
+      <c r="E75" s="9">
+        <v>36.734999999999999</v>
+      </c>
       <c r="F75" s="9">
         <v>73</v>
       </c>
-      <c r="G75" s="7" t="e">
+      <c r="G75" s="7">
+        <f t="shared" si="19"/>
+        <v>-3.5263800352638695E-3</v>
+      </c>
+      <c r="H75" s="27">
+        <f t="shared" si="20"/>
+        <v>6.5035263800366847</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="21"/>
+        <v>8.1378000813783085E-4</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H75" s="27">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T75">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I75" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J75" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L75" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="1" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O75" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P75" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q75" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R75" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S75" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T75" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
+    </row>
+    <row r="76" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A76" s="25">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="B76" s="9">
+        <v>36.734999999999999</v>
+      </c>
+      <c r="C76" s="9">
+        <v>36.735050000000001</v>
+      </c>
+      <c r="D76" s="9">
+        <v>36.585000000000001</v>
+      </c>
+      <c r="E76" s="9">
+        <v>36.664999999999999</v>
+      </c>
       <c r="F76" s="9">
         <v>74</v>
       </c>
-      <c r="G76" s="7" t="e">
+      <c r="G76" s="7">
+        <f t="shared" si="19"/>
+        <v>-1.9055396760582629E-3</v>
+      </c>
+      <c r="H76" s="27">
+        <f t="shared" si="20"/>
+        <v>0.54036707813758833</v>
+      </c>
+      <c r="I76" s="7">
+        <f t="shared" si="21"/>
+        <v>1.3610997686582231E-6</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H76" s="27">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T76">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I76" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J76" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L76" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="1" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O76" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P76" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q76" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R76" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S76" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T76" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+    </row>
+    <row r="77" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A77" s="25">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="B77" s="9">
+        <v>36.664999999999999</v>
+      </c>
+      <c r="C77" s="9">
+        <v>36.745049999999999</v>
+      </c>
+      <c r="D77" s="9">
+        <v>36.615000000000002</v>
+      </c>
+      <c r="E77" s="9">
+        <v>36.625</v>
+      </c>
       <c r="F77" s="9">
         <v>75</v>
       </c>
-      <c r="G77" s="7" t="e">
+      <c r="G77" s="7">
+        <f t="shared" si="19"/>
+        <v>-1.0909586799399741E-3</v>
+      </c>
+      <c r="H77" s="27">
+        <f t="shared" si="20"/>
+        <v>0.57251953010849688</v>
+      </c>
+      <c r="I77" s="7">
+        <f t="shared" si="21"/>
+        <v>2.1832810582299183E-3</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="27">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T77">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I77" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J77" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L77" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="1" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O77" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P77" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R77" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S77" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T77" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+    </row>
+    <row r="78" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A78" s="25">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="B78" s="9">
+        <v>36.625</v>
+      </c>
+      <c r="C78" s="9">
+        <v>36.865000000000002</v>
+      </c>
+      <c r="D78" s="9">
+        <v>36.604999999999997</v>
+      </c>
+      <c r="E78" s="9">
+        <v>36.715000000000003</v>
+      </c>
       <c r="F78" s="9">
         <v>76</v>
       </c>
-      <c r="G78" s="7" t="e">
+      <c r="G78" s="7">
+        <f t="shared" si="19"/>
+        <v>2.4573378839591376E-3</v>
+      </c>
+      <c r="H78" s="27">
+        <f t="shared" si="20"/>
+        <v>2.2524573378840924</v>
+      </c>
+      <c r="I78" s="7">
+        <f t="shared" si="21"/>
+        <v>6.5529010238908397E-3</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="27">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T78">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I78" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J78" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L78" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="1" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O78" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P78" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q78" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R78" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S78" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T78" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+    </row>
+    <row r="79" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A79" s="25">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="B79" s="9">
+        <v>36.715000000000003</v>
+      </c>
+      <c r="C79" s="9">
+        <v>36.985050000000001</v>
+      </c>
+      <c r="D79" s="9">
+        <v>36.715000000000003</v>
+      </c>
+      <c r="E79" s="9">
+        <v>36.965000000000003</v>
+      </c>
       <c r="F79" s="9">
         <v>77</v>
       </c>
-      <c r="G79" s="7" t="e">
+      <c r="G79" s="7">
+        <f t="shared" si="19"/>
+        <v>6.8092060465749686E-3</v>
+      </c>
+      <c r="H79" s="27">
+        <f t="shared" si="20"/>
+        <v>2.7709685717310975</v>
+      </c>
+      <c r="I79" s="7">
+        <f t="shared" si="21"/>
+        <v>7.3553043715102184E-3</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H79" s="27">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T79">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J79" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L79" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="1" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O79" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P79" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q79" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R79" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S79" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T79" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7108,24 +7259,24 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.1328125" style="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="1"/>
+    <col min="8" max="8" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.1328125" style="1"/>
+    <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="1"/>
+    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7169,7 +7320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -7219,7 +7370,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -7248,7 +7399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -7262,7 +7413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7279,7 +7430,7 @@
         <v>2051.0249999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -7292,13 +7443,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:D11" si="0">+C8*100*B8</f>
+        <f>+C8*100*B8</f>
         <v>2101.0499999999997</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -7311,11 +7462,11 @@
         <v>23</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f>+C9*100*B9</f>
         <v>2201.1000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -7328,11 +7479,11 @@
         <v>23</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f>+C10*100*B10</f>
         <v>2301.15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="17">
         <v>5</v>
       </c>
@@ -7345,11 +7496,11 @@
         <v>23</v>
       </c>
       <c r="D11" s="20">
-        <f t="shared" si="0"/>
+        <f>+C11*100*B11</f>
         <v>2401.2000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7375,7 +7526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J13" s="1">
         <v>100</v>
       </c>
@@ -7392,7 +7543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -7413,7 +7564,7 @@
         <v>64</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" ref="L14:L16" si="1">+J14-K14</f>
+        <f>+J14-K14</f>
         <v>16</v>
       </c>
       <c r="M14" s="1">
@@ -7421,17 +7572,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J15" s="1">
-        <f t="shared" ref="J15:J16" si="2">+K14</f>
+        <f>+K14</f>
         <v>64</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ref="K15:K16" si="3">+J15*0.8</f>
+        <f>+J15*0.8</f>
         <v>51.2</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="1"/>
+        <f>+J15-K15</f>
         <v>12.799999999999997</v>
       </c>
       <c r="M15" s="1">
@@ -7439,17 +7590,17 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f>+K15</f>
         <v>51.2</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f>+J16*0.8</f>
         <v>40.960000000000008</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="1"/>
+        <f>+J16-K16</f>
         <v>10.239999999999995</v>
       </c>
       <c r="M16" s="1">
